--- a/臺灣閩南語TaiwaneseCVVC拼音方案音節表.xlsx
+++ b/臺灣閩南語TaiwaneseCVVC拼音方案音節表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\UTAU-Taiwanese-Voicebank-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41379501-5330-40CA-8F30-822BAE0C474C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9B9B52-07ED-45BF-A9F0-0C8C805656C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,18 +37,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>聲母
-韻母</t>
-    </r>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
@@ -5671,6 +5659,11 @@
   </si>
   <si>
     <t>臺灣閩南語TaiwaneseCVVC拼音方案音節表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           聲母
+韻母</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5887,9 +5880,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -5962,6 +5952,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -5986,23 +5994,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6352,8 +6345,8 @@
   </sheetPr>
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:U1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6370,3886 +6363,3823 @@
     <col min="17" max="17" width="12.6640625" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
     <col min="19" max="19" width="15.1640625" customWidth="1"/>
-    <col min="20" max="20" width="13.33203125" style="18" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" style="17" customWidth="1"/>
     <col min="21" max="21" width="10.5" customWidth="1"/>
     <col min="22" max="22" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
-        <v>902</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="14"/>
+      <c r="A1" s="39" t="s">
+        <v>901</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="13"/>
     </row>
     <row r="2" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="26" t="s">
+        <v>603</v>
+      </c>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="T2" s="3" t="s">
+      <c r="R2" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>606</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>782</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>783</v>
-      </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="R3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="35" t="s">
-        <v>822</v>
-      </c>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="10" t="s">
-        <v>690</v>
-      </c>
-      <c r="R3" s="11" t="s">
+      <c r="S3" s="11"/>
+      <c r="T3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="11" t="s">
+      <c r="U3" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="28" t="s">
+        <v>822</v>
+      </c>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="R4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>725</v>
-      </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="35" t="s">
-        <v>823</v>
-      </c>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="R4" s="11" t="s">
+      <c r="S4" s="11"/>
+      <c r="T4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="12"/>
-      <c r="T4" s="11" t="s">
+      <c r="U4" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="K5" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="N5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>608</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>726</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>784</v>
-      </c>
-      <c r="N5" s="11" t="s">
+      <c r="O5" s="28" t="s">
+        <v>823</v>
+      </c>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="R5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="35" t="s">
-        <v>824</v>
-      </c>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="R5" s="11" t="s">
+      <c r="S5" s="11"/>
+      <c r="T5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="12"/>
-      <c r="T5" s="11" t="s">
+      <c r="U5" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="28" t="s">
+        <v>824</v>
+      </c>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="10" t="s">
-        <v>609</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="35" t="s">
-        <v>825</v>
-      </c>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="11" t="s">
+      <c r="U6" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="11" t="s">
+      <c r="K7" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="R7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>728</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>785</v>
-      </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="35" t="s">
-        <v>826</v>
-      </c>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="R7" s="11" t="s">
+      <c r="S7" s="11"/>
+      <c r="T7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="S7" s="12"/>
-      <c r="T7" s="11" t="s">
+      <c r="U7" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>554</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="11" t="s">
+      <c r="K8" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="R8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="10" t="s">
-        <v>611</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>729</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>786</v>
-      </c>
-      <c r="N8" s="12"/>
-      <c r="O8" s="35" t="s">
-        <v>827</v>
-      </c>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="R8" s="11" t="s">
+      <c r="S8" s="11"/>
+      <c r="T8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="S8" s="12"/>
-      <c r="T8" s="11" t="s">
+      <c r="U8" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="11" t="s">
+      <c r="K9" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="28" t="s">
+        <v>827</v>
+      </c>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="R9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="10" t="s">
-        <v>612</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>730</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>787</v>
-      </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="35" t="s">
-        <v>828</v>
-      </c>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="10" t="s">
-        <v>696</v>
-      </c>
-      <c r="R9" s="11" t="s">
+      <c r="S9" s="11"/>
+      <c r="T9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="S9" s="12"/>
-      <c r="T9" s="11" t="s">
+      <c r="U9" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="11" t="s">
+      <c r="K10" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="28" t="s">
+        <v>828</v>
+      </c>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="R10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>731</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>788</v>
-      </c>
-      <c r="N10" s="12"/>
-      <c r="O10" s="35" t="s">
-        <v>829</v>
-      </c>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="10" t="s">
-        <v>697</v>
-      </c>
-      <c r="R10" s="11" t="s">
+      <c r="S10" s="11"/>
+      <c r="T10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="S10" s="12"/>
-      <c r="T10" s="11" t="s">
+      <c r="U10" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="R11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="10" t="s">
-        <v>614</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>732</v>
-      </c>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="10" t="s">
-        <v>698</v>
-      </c>
-      <c r="R11" s="11" t="s">
+      <c r="S11" s="11"/>
+      <c r="T11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="S11" s="12"/>
-      <c r="T11" s="11" t="s">
+      <c r="U11" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="11" t="s">
+      <c r="S12" s="11"/>
+      <c r="T12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="S12" s="12"/>
-      <c r="T12" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="U12" s="12"/>
+      <c r="U12" s="11"/>
     </row>
     <row r="13" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="N13" s="11"/>
+      <c r="O13" s="28" t="s">
+        <v>829</v>
+      </c>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="R13" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="10" t="s">
-        <v>615</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>733</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>789</v>
-      </c>
-      <c r="N13" s="12"/>
-      <c r="O13" s="35" t="s">
-        <v>830</v>
-      </c>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="10" t="s">
-        <v>699</v>
-      </c>
-      <c r="R13" s="11" t="s">
+      <c r="S13" s="11"/>
+      <c r="T13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="S13" s="12"/>
-      <c r="T13" s="11" t="s">
+      <c r="U13" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="U13" s="11" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="11" t="s">
+      <c r="K14" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="28" t="s">
+        <v>830</v>
+      </c>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="R14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="10" t="s">
-        <v>616</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>734</v>
-      </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="35" t="s">
-        <v>831</v>
-      </c>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="R14" s="11" t="s">
+      <c r="S14" s="11"/>
+      <c r="T14" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="S14" s="12"/>
-      <c r="T14" s="11" t="s">
+      <c r="U14" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="U14" s="11" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="I15" s="11" t="s">
+      <c r="J15" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="K15" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="N15" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="K15" s="10" t="s">
-        <v>617</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>790</v>
-      </c>
-      <c r="N15" s="11" t="s">
+      <c r="O15" s="28" t="s">
+        <v>831</v>
+      </c>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="R15" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="O15" s="35" t="s">
-        <v>832</v>
-      </c>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="10" t="s">
-        <v>701</v>
-      </c>
-      <c r="R15" s="11" t="s">
+      <c r="S15" s="11"/>
+      <c r="T15" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="S15" s="12"/>
-      <c r="T15" s="11" t="s">
+      <c r="U15" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="U15" s="11" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="11" t="s">
+      <c r="J16" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="K16" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="L16" s="18"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="K16" s="10" t="s">
-        <v>618</v>
-      </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
     </row>
     <row r="17" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="E17" s="11" t="s">
+      <c r="F17" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="I17" s="11" t="s">
+      <c r="J17" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="K17" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="N17" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="K17" s="10" t="s">
-        <v>619</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>736</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>791</v>
-      </c>
-      <c r="N17" s="11" t="s">
+      <c r="O17" s="28" t="s">
+        <v>832</v>
+      </c>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="R17" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="O17" s="35" t="s">
-        <v>833</v>
-      </c>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="R17" s="11" t="s">
+      <c r="S17" s="11"/>
+      <c r="T17" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="S17" s="12"/>
-      <c r="T17" s="11" t="s">
+      <c r="U17" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="U17" s="11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="11" t="s">
+      <c r="F18" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="I18" s="11" t="s">
+      <c r="J18" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="K18" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="M18" s="11"/>
+      <c r="N18" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="K18" s="10" t="s">
-        <v>620</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="M18" s="12"/>
-      <c r="N18" s="11" t="s">
+      <c r="O18" s="28" t="s">
+        <v>833</v>
+      </c>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="R18" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="O18" s="35" t="s">
-        <v>834</v>
-      </c>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="R18" s="11" t="s">
+      <c r="S18" s="11"/>
+      <c r="T18" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="S18" s="12"/>
-      <c r="T18" s="11" t="s">
+      <c r="U18" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="U18" s="11" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="28" t="s">
+        <v>834</v>
+      </c>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="R19" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="10" t="s">
-        <v>621</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>738</v>
-      </c>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="35" t="s">
-        <v>835</v>
-      </c>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="R19" s="11" t="s">
+      <c r="S19" s="11"/>
+      <c r="T19" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="S19" s="12"/>
-      <c r="T19" s="11" t="s">
+      <c r="U19" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="U19" s="11" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="10" t="s">
-        <v>739</v>
-      </c>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
+      <c r="B20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
     </row>
     <row r="21" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="E21" s="11" t="s">
+      <c r="F21" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="I21" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="I21" s="11" t="s">
+      <c r="J21" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="K21" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="N21" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="K21" s="10" t="s">
-        <v>622</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>740</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>792</v>
-      </c>
-      <c r="N21" s="11" t="s">
+      <c r="O21" s="28" t="s">
+        <v>835</v>
+      </c>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="R21" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="O21" s="35" t="s">
-        <v>836</v>
-      </c>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="R21" s="11" t="s">
+      <c r="S21" s="9" t="s">
+        <v>878</v>
+      </c>
+      <c r="T21" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="S21" s="10" t="s">
-        <v>879</v>
-      </c>
-      <c r="T21" s="11" t="s">
+      <c r="U21" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="U21" s="11" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="11" t="s">
+      <c r="F22" s="11"/>
+      <c r="G22" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="11" t="s">
+      <c r="J22" s="11"/>
+      <c r="K22" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="N22" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>741</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>793</v>
-      </c>
-      <c r="N22" s="13" t="s">
+      <c r="O22" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="R22" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="O22" s="35" t="s">
-        <v>837</v>
-      </c>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="10" t="s">
-        <v>706</v>
-      </c>
-      <c r="R22" s="11" t="s">
+      <c r="S22" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="T22" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="S22" s="10" t="s">
-        <v>880</v>
-      </c>
-      <c r="T22" s="11" t="s">
+      <c r="U22" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="U22" s="11" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="H23" s="11" t="s">
+      <c r="I23" s="11"/>
+      <c r="J23" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="11" t="s">
+      <c r="K23" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="N23" s="11"/>
+      <c r="O23" s="28" t="s">
+        <v>837</v>
+      </c>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="R23" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="K23" s="10" t="s">
-        <v>624</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>742</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>794</v>
-      </c>
-      <c r="N23" s="12"/>
-      <c r="O23" s="35" t="s">
-        <v>838</v>
-      </c>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="10" t="s">
-        <v>707</v>
-      </c>
-      <c r="R23" s="11" t="s">
+      <c r="S23" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="T23" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="S23" s="10" t="s">
-        <v>881</v>
-      </c>
-      <c r="T23" s="11" t="s">
+      <c r="U23" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="U23" s="11" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="R24" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>743</v>
-      </c>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="10" t="s">
-        <v>708</v>
-      </c>
-      <c r="R24" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
     </row>
     <row r="25" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="11" t="s">
+      <c r="K25" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="N25" s="11"/>
+      <c r="O25" s="28" t="s">
+        <v>838</v>
+      </c>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="R25" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="K25" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>744</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>795</v>
-      </c>
-      <c r="N25" s="12"/>
-      <c r="O25" s="35" t="s">
-        <v>839</v>
-      </c>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="R25" s="11" t="s">
+      <c r="S25" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="T25" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="S25" s="10" t="s">
-        <v>882</v>
-      </c>
-      <c r="T25" s="11" t="s">
+      <c r="U25" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="U25" s="11" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="11" t="s">
+      <c r="K26" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="N26" s="11"/>
+      <c r="O26" s="28" t="s">
+        <v>839</v>
+      </c>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="R26" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K26" s="10" t="s">
-        <v>627</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>745</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="N26" s="12"/>
-      <c r="O26" s="35" t="s">
-        <v>840</v>
-      </c>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="10" t="s">
-        <v>710</v>
-      </c>
-      <c r="R26" s="11" t="s">
+      <c r="S26" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="T26" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="S26" s="10" t="s">
-        <v>883</v>
-      </c>
-      <c r="T26" s="11" t="s">
+      <c r="U26" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="U26" s="11" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="11" t="s">
+      <c r="K27" s="11"/>
+      <c r="L27" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="N27" s="11"/>
+      <c r="O27" s="28" t="s">
+        <v>840</v>
+      </c>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="R27" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K27" s="12"/>
-      <c r="L27" s="10" t="s">
-        <v>746</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>797</v>
-      </c>
-      <c r="N27" s="12"/>
-      <c r="O27" s="35" t="s">
-        <v>841</v>
-      </c>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="10" t="s">
-        <v>711</v>
-      </c>
-      <c r="R27" s="11" t="s">
+      <c r="S27" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="T27" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="S27" s="10" t="s">
-        <v>884</v>
-      </c>
-      <c r="T27" s="11" t="s">
+      <c r="U27" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="U27" s="11" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="L28" s="18"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="R28" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="L28" s="19"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="35" t="s">
-        <v>842</v>
-      </c>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="10" t="s">
-        <v>712</v>
-      </c>
-      <c r="R28" s="11" t="s">
+      <c r="S28" s="11"/>
+      <c r="T28" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="S28" s="12"/>
-      <c r="T28" s="11" t="s">
+      <c r="U28" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="U28" s="11" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="11" t="s">
+      <c r="K29" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="N29" s="11"/>
+      <c r="O29" s="28" t="s">
+        <v>842</v>
+      </c>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="R29" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="K29" s="10" t="s">
-        <v>629</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>747</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>798</v>
-      </c>
-      <c r="N29" s="12"/>
-      <c r="O29" s="35" t="s">
-        <v>843</v>
-      </c>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="10" t="s">
-        <v>713</v>
-      </c>
-      <c r="R29" s="11" t="s">
+      <c r="S29" s="11"/>
+      <c r="T29" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="S29" s="12"/>
-      <c r="T29" s="11" t="s">
+      <c r="U29" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="U29" s="11" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="I30" s="12"/>
-      <c r="J30" s="11" t="s">
+      <c r="K30" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="N30" s="11"/>
+      <c r="O30" s="28" t="s">
+        <v>843</v>
+      </c>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="R30" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="K30" s="10" t="s">
-        <v>630</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>748</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>799</v>
-      </c>
-      <c r="N30" s="12"/>
-      <c r="O30" s="35" t="s">
-        <v>844</v>
-      </c>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="10" t="s">
-        <v>714</v>
-      </c>
-      <c r="R30" s="11" t="s">
+      <c r="S30" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="T30" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="S30" s="10" t="s">
-        <v>885</v>
-      </c>
-      <c r="T30" s="11" t="s">
+      <c r="U30" s="10" t="s">
         <v>155</v>
-      </c>
-      <c r="U30" s="11" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="E31" s="11" t="s">
+      <c r="F31" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="I31" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="I31" s="11" t="s">
+      <c r="J31" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="K31" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="N31" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="K31" s="10" t="s">
-        <v>631</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>749</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>800</v>
-      </c>
-      <c r="N31" s="11" t="s">
+      <c r="O31" s="28" t="s">
+        <v>844</v>
+      </c>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="R31" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="O31" s="35" t="s">
-        <v>845</v>
-      </c>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="10" t="s">
-        <v>715</v>
-      </c>
-      <c r="R31" s="11" t="s">
+      <c r="S31" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="T31" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="S31" s="10" t="s">
-        <v>886</v>
-      </c>
-      <c r="T31" s="11" t="s">
+      <c r="U31" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="U31" s="11" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>30</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="11" t="s">
+      <c r="J32" s="11"/>
+      <c r="K32" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="N32" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="J32" s="12"/>
-      <c r="K32" s="10" t="s">
-        <v>632</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>750</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>801</v>
-      </c>
-      <c r="N32" s="11" t="s">
+      <c r="O32" s="30"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="U32" s="12"/>
+      <c r="U32" s="11"/>
     </row>
     <row r="33" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>31</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="11" t="s">
-        <v>169</v>
+      <c r="B33" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="10" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>32</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="E34" s="11" t="s">
+      <c r="F34" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="I34" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="I34" s="11" t="s">
+      <c r="J34" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="K34" s="11"/>
+      <c r="L34" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="28" t="s">
+        <v>845</v>
+      </c>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="R34" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="K34" s="12"/>
-      <c r="L34" s="10" t="s">
-        <v>751</v>
-      </c>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="35" t="s">
-        <v>846</v>
-      </c>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="10" t="s">
-        <v>716</v>
-      </c>
-      <c r="R34" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
     </row>
     <row r="35" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="I35" s="12"/>
-      <c r="J35" s="11" t="s">
+      <c r="K35" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="N35" s="11"/>
+      <c r="O35" s="28" t="s">
+        <v>846</v>
+      </c>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="R35" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="K35" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>752</v>
-      </c>
-      <c r="M35" s="10" t="s">
-        <v>802</v>
-      </c>
-      <c r="N35" s="12"/>
-      <c r="O35" s="35" t="s">
-        <v>847</v>
-      </c>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="10" t="s">
-        <v>717</v>
-      </c>
-      <c r="R35" s="11" t="s">
+      <c r="S35" s="11"/>
+      <c r="T35" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="S35" s="12"/>
-      <c r="T35" s="11" t="s">
+      <c r="U35" s="10" t="s">
         <v>178</v>
-      </c>
-      <c r="U35" s="11" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>34</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>573</v>
-      </c>
-      <c r="I36" s="12"/>
-      <c r="J36" s="11" t="s">
+      <c r="K36" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="N36" s="11"/>
+      <c r="O36" s="28" t="s">
+        <v>847</v>
+      </c>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="R36" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="K36" s="10" t="s">
-        <v>634</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>753</v>
-      </c>
-      <c r="M36" s="10" t="s">
-        <v>803</v>
-      </c>
-      <c r="N36" s="12"/>
-      <c r="O36" s="35" t="s">
-        <v>848</v>
-      </c>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="10" t="s">
-        <v>718</v>
-      </c>
-      <c r="R36" s="11" t="s">
+      <c r="S36" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="T36" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="S36" s="10" t="s">
-        <v>887</v>
-      </c>
-      <c r="T36" s="11" t="s">
+      <c r="U36" s="10" t="s">
         <v>183</v>
-      </c>
-      <c r="U36" s="11" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>35</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="I37" s="12"/>
-      <c r="J37" s="11" t="s">
+      <c r="K37" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="N37" s="11"/>
+      <c r="O37" s="28" t="s">
+        <v>848</v>
+      </c>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="R37" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="K37" s="10" t="s">
-        <v>635</v>
-      </c>
-      <c r="L37" s="10" t="s">
-        <v>754</v>
-      </c>
-      <c r="M37" s="10" t="s">
-        <v>804</v>
-      </c>
-      <c r="N37" s="12"/>
-      <c r="O37" s="35" t="s">
-        <v>849</v>
-      </c>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="10" t="s">
-        <v>719</v>
-      </c>
-      <c r="R37" s="11" t="s">
+      <c r="S37" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="T37" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="S37" s="10" t="s">
-        <v>888</v>
-      </c>
-      <c r="T37" s="11" t="s">
+      <c r="U37" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="U37" s="11" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>36</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="I38" s="11"/>
+      <c r="J38" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="I38" s="12"/>
-      <c r="J38" s="11" t="s">
+      <c r="K38" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="N38" s="11"/>
+      <c r="O38" s="28" t="s">
+        <v>849</v>
+      </c>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="R38" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="K38" s="10" t="s">
-        <v>636</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>755</v>
-      </c>
-      <c r="M38" s="10" t="s">
-        <v>805</v>
-      </c>
-      <c r="N38" s="12"/>
-      <c r="O38" s="35" t="s">
-        <v>850</v>
-      </c>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="10" t="s">
-        <v>720</v>
-      </c>
-      <c r="R38" s="11" t="s">
+      <c r="S38" s="11"/>
+      <c r="T38" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="S38" s="12"/>
-      <c r="T38" s="11" t="s">
+      <c r="U38" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="U38" s="11" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>37</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="28" t="s">
+        <v>850</v>
+      </c>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="R39" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>576</v>
-      </c>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="10" t="s">
-        <v>637</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>756</v>
-      </c>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="35" t="s">
-        <v>851</v>
-      </c>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="10" t="s">
-        <v>721</v>
-      </c>
-      <c r="R39" s="11" t="s">
+      <c r="S39" s="11"/>
+      <c r="T39" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="S39" s="12"/>
-      <c r="T39" s="11" t="s">
+      <c r="U39" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="U39" s="11" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>38</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
+      <c r="B40" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
     </row>
     <row r="41" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>39</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="I41" s="11"/>
+      <c r="J41" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="I41" s="12"/>
-      <c r="J41" s="11" t="s">
+      <c r="K41" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="N41" s="11"/>
+      <c r="O41" s="28" t="s">
+        <v>851</v>
+      </c>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="R41" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="K41" s="10" t="s">
-        <v>638</v>
-      </c>
-      <c r="L41" s="10" t="s">
-        <v>757</v>
-      </c>
-      <c r="M41" s="10" t="s">
-        <v>806</v>
-      </c>
-      <c r="N41" s="12"/>
-      <c r="O41" s="35" t="s">
-        <v>852</v>
-      </c>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="10" t="s">
-        <v>722</v>
-      </c>
-      <c r="R41" s="11" t="s">
+      <c r="S41" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="T41" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="S41" s="10" t="s">
-        <v>889</v>
-      </c>
-      <c r="T41" s="11" t="s">
+      <c r="U41" s="10" t="s">
         <v>203</v>
-      </c>
-      <c r="U41" s="11" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>40</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="11" t="s">
+      <c r="K42" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="28" t="s">
+        <v>852</v>
+      </c>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="R42" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K42" s="10" t="s">
-        <v>639</v>
-      </c>
-      <c r="L42" s="10" t="s">
-        <v>758</v>
-      </c>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="35" t="s">
-        <v>853</v>
-      </c>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="10" t="s">
-        <v>723</v>
-      </c>
-      <c r="R42" s="11" t="s">
+      <c r="S42" s="11"/>
+      <c r="T42" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="S42" s="12"/>
-      <c r="T42" s="11" t="s">
+      <c r="U42" s="10" t="s">
         <v>208</v>
-      </c>
-      <c r="U42" s="11" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="40" t="s">
+        <v>902</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="F43" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3" t="s">
+      <c r="L43" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="M43" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="N43" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="O43" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="O43" s="37" t="s">
+      <c r="P43" s="27"/>
+      <c r="Q43" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="R43" s="3" t="s">
+      <c r="R43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="T43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="T43" s="3" t="s">
+      <c r="U43" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>41</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="I44" s="15"/>
+      <c r="J44" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="I44" s="16"/>
-      <c r="J44" s="6" t="s">
+      <c r="K44" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="N44" s="15"/>
+      <c r="O44" s="32" t="s">
+        <v>853</v>
+      </c>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="R44" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="K44" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="L44" s="9" t="s">
-        <v>759</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>807</v>
-      </c>
-      <c r="N44" s="16"/>
-      <c r="O44" s="27" t="s">
-        <v>854</v>
-      </c>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="9" t="s">
-        <v>724</v>
-      </c>
-      <c r="R44" s="6" t="s">
+      <c r="S44" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="T44" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="S44" s="9" t="s">
-        <v>890</v>
-      </c>
-      <c r="T44" s="6" t="s">
+      <c r="U44" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="U44" s="6" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>42</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="I45" s="15"/>
+      <c r="J45" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>579</v>
-      </c>
-      <c r="I45" s="16"/>
-      <c r="J45" s="6" t="s">
+      <c r="K45" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="L45" s="19" t="s">
+        <v>759</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="N45" s="15"/>
+      <c r="O45" s="32" t="s">
+        <v>854</v>
+      </c>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="19" t="s">
+        <v>667</v>
+      </c>
+      <c r="R45" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="K45" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="L45" s="20" t="s">
-        <v>760</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>808</v>
-      </c>
-      <c r="N45" s="16"/>
-      <c r="O45" s="27" t="s">
-        <v>855</v>
-      </c>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="20" t="s">
-        <v>668</v>
-      </c>
-      <c r="R45" s="6" t="s">
+      <c r="S45" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="T45" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="S45" s="9" t="s">
-        <v>891</v>
-      </c>
-      <c r="T45" s="6" t="s">
+      <c r="U45" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="U45" s="6" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+      <c r="A46" s="6">
         <v>43</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="6" t="s">
+      <c r="K46" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="32" t="s">
+        <v>855</v>
+      </c>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="R46" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="K46" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="L46" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="27" t="s">
-        <v>856</v>
-      </c>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="R46" s="6" t="s">
+      <c r="S46" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="T46" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="S46" s="9" t="s">
-        <v>892</v>
-      </c>
-      <c r="T46" s="6" t="s">
+      <c r="U46" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="U46" s="6" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>44</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="E47" s="15"/>
+      <c r="F47" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="32" t="s">
+        <v>856</v>
+      </c>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="R47" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="L47" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="27" t="s">
-        <v>857</v>
-      </c>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="9" t="s">
-        <v>670</v>
-      </c>
-      <c r="R47" s="6" t="s">
+      <c r="S47" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="T47" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="S47" s="9" t="s">
-        <v>893</v>
-      </c>
-      <c r="T47" s="6" t="s">
+      <c r="U47" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="U47" s="6" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+      <c r="A48" s="6">
         <v>45</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="I48" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="I48" s="6" t="s">
+      <c r="J48" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="J48" s="6" t="s">
+      <c r="K48" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="N48" s="15"/>
+      <c r="O48" s="32" t="s">
+        <v>857</v>
+      </c>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="R48" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="K48" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="L48" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>809</v>
-      </c>
-      <c r="N48" s="16"/>
-      <c r="O48" s="27" t="s">
-        <v>858</v>
-      </c>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="9" t="s">
-        <v>671</v>
-      </c>
-      <c r="R48" s="6" t="s">
+      <c r="S48" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="T48" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="S48" s="9" t="s">
-        <v>894</v>
-      </c>
-      <c r="T48" s="6" t="s">
+      <c r="U48" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="U48" s="6" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>46</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="L49" s="21"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
-      <c r="U49" s="16"/>
+      <c r="B49" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="L49" s="20"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
     </row>
     <row r="50" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>47</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="32" t="s">
+        <v>858</v>
+      </c>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="R50" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="L50" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="27" t="s">
-        <v>859</v>
-      </c>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="9" t="s">
-        <v>672</v>
-      </c>
-      <c r="R50" s="6" t="s">
+      <c r="S50" s="15"/>
+      <c r="T50" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="S50" s="16"/>
-      <c r="T50" s="6" t="s">
+      <c r="U50" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="U50" s="6" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>48</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="16"/>
-      <c r="S51" s="16"/>
-      <c r="T51" s="6" t="s">
+      <c r="B51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="U51" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="U51" s="6" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>49</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="U52" s="16"/>
+      <c r="U52" s="15"/>
     </row>
     <row r="53" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
+      <c r="A53" s="6">
         <v>50</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="6" t="s">
+      <c r="B53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D53" s="15"/>
+      <c r="E53" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F53" s="15"/>
+      <c r="G53" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="I53" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="I53" s="6" t="s">
+      <c r="J53" s="15"/>
+      <c r="K53" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="32" t="s">
+        <v>859</v>
+      </c>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="R53" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J53" s="16"/>
-      <c r="K53" s="9" t="s">
-        <v>647</v>
-      </c>
-      <c r="L53" s="9" t="s">
-        <v>765</v>
-      </c>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="27" t="s">
-        <v>860</v>
-      </c>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="R53" s="6" t="s">
+      <c r="S53" s="15"/>
+      <c r="T53" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="S53" s="16"/>
-      <c r="T53" s="6" t="s">
+      <c r="U53" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="U53" s="6" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
+      <c r="A54" s="6">
         <v>51</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="R54" s="15"/>
+      <c r="S54" s="15"/>
+      <c r="T54" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="R54" s="16"/>
-      <c r="S54" s="16"/>
-      <c r="T54" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="U54" s="16"/>
+      <c r="U54" s="15"/>
     </row>
     <row r="55" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
+      <c r="A55" s="6">
         <v>52</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="E55" s="15"/>
+      <c r="F55" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I55" s="15"/>
+      <c r="J55" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="I55" s="16"/>
-      <c r="J55" s="6" t="s">
+      <c r="K55" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="N55" s="15"/>
+      <c r="O55" s="32" t="s">
+        <v>860</v>
+      </c>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="R55" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="K55" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="L55" s="9" t="s">
-        <v>766</v>
-      </c>
-      <c r="M55" s="9" t="s">
-        <v>810</v>
-      </c>
-      <c r="N55" s="16"/>
-      <c r="O55" s="27" t="s">
-        <v>861</v>
-      </c>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="R55" s="6" t="s">
+      <c r="S55" s="15"/>
+      <c r="T55" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="S55" s="16"/>
-      <c r="T55" s="6" t="s">
+      <c r="U55" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="U55" s="6" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
+      <c r="A56" s="6">
         <v>53</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="I56" s="15"/>
+      <c r="J56" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="I56" s="16"/>
-      <c r="J56" s="6" t="s">
+      <c r="K56" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="L56" s="20"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="32" t="s">
+        <v>861</v>
+      </c>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="R56" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="K56" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="L56" s="21"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="27" t="s">
-        <v>862</v>
-      </c>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="9" t="s">
-        <v>676</v>
-      </c>
-      <c r="R56" s="6" t="s">
+      <c r="S56" s="15"/>
+      <c r="T56" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="S56" s="16"/>
-      <c r="T56" s="6" t="s">
+      <c r="U56" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="U56" s="6" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
+      <c r="A57" s="6">
         <v>54</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="E57" s="15"/>
+      <c r="F57" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="I57" s="15"/>
+      <c r="J57" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="I57" s="16"/>
-      <c r="J57" s="6" t="s">
+      <c r="K57" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="N57" s="15"/>
+      <c r="O57" s="32" t="s">
+        <v>862</v>
+      </c>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="R57" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="K57" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="L57" s="9" t="s">
-        <v>767</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>811</v>
-      </c>
-      <c r="N57" s="16"/>
-      <c r="O57" s="27" t="s">
-        <v>863</v>
-      </c>
-      <c r="P57" s="28"/>
-      <c r="Q57" s="9" t="s">
-        <v>677</v>
-      </c>
-      <c r="R57" s="6" t="s">
+      <c r="S57" s="15"/>
+      <c r="T57" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="S57" s="16"/>
-      <c r="T57" s="6" t="s">
+      <c r="U57" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="U57" s="6" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
+      <c r="A58" s="6">
         <v>55</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="29"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="21"/>
-      <c r="R58" s="26" t="s">
-        <v>901</v>
-      </c>
-      <c r="S58" s="16"/>
-      <c r="T58" s="16"/>
-      <c r="U58" s="16"/>
+      <c r="B58" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="35"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="25" t="s">
+        <v>900</v>
+      </c>
+      <c r="S58" s="15"/>
+      <c r="T58" s="15"/>
+      <c r="U58" s="15"/>
     </row>
     <row r="59" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
+      <c r="A59" s="6">
         <v>56</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="E59" s="15"/>
+      <c r="F59" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="I59" s="15"/>
+      <c r="J59" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="E59" s="16"/>
-      <c r="F59" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="I59" s="16"/>
-      <c r="J59" s="6" t="s">
+      <c r="K59" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="N59" s="15"/>
+      <c r="O59" s="32" t="s">
+        <v>863</v>
+      </c>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="R59" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="K59" s="9" t="s">
-        <v>651</v>
-      </c>
-      <c r="L59" s="9" t="s">
-        <v>768</v>
-      </c>
-      <c r="M59" s="9" t="s">
-        <v>812</v>
-      </c>
-      <c r="N59" s="16"/>
-      <c r="O59" s="27" t="s">
-        <v>864</v>
-      </c>
-      <c r="P59" s="28"/>
-      <c r="Q59" s="9" t="s">
-        <v>678</v>
-      </c>
-      <c r="R59" s="6" t="s">
+      <c r="S59" s="15"/>
+      <c r="T59" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="S59" s="16"/>
-      <c r="T59" s="6" t="s">
+      <c r="U59" s="5" t="s">
         <v>270</v>
-      </c>
-      <c r="U59" s="6" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="60" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
+      <c r="A60" s="6">
         <v>57</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="L60" s="20"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="35"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="15"/>
+      <c r="S60" s="15"/>
+      <c r="T60" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="9" t="s">
-        <v>652</v>
-      </c>
-      <c r="L60" s="21"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="29"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="21"/>
-      <c r="R60" s="16"/>
-      <c r="S60" s="16"/>
-      <c r="T60" s="6" t="s">
+      <c r="U60" s="5" t="s">
         <v>273</v>
-      </c>
-      <c r="U60" s="6" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
+      <c r="A61" s="6">
         <v>58</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C61" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="E61" s="6" t="s">
+      <c r="F61" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="I61" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="F61" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="I61" s="6" t="s">
+      <c r="J61" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="J61" s="6" t="s">
+      <c r="K61" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="N61" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="K61" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="L61" s="9" t="s">
-        <v>769</v>
-      </c>
-      <c r="M61" s="9" t="s">
-        <v>813</v>
-      </c>
-      <c r="N61" s="6" t="s">
+      <c r="O61" s="32" t="s">
+        <v>864</v>
+      </c>
+      <c r="P61" s="33"/>
+      <c r="Q61" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="R61" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="O61" s="27" t="s">
-        <v>865</v>
-      </c>
-      <c r="P61" s="28"/>
-      <c r="Q61" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="R61" s="6" t="s">
+      <c r="S61" s="15"/>
+      <c r="T61" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="S61" s="16"/>
-      <c r="T61" s="6" t="s">
+      <c r="U61" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="U61" s="6" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
+      <c r="A62" s="6">
         <v>59</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="29"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="21"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
-      <c r="T62" s="16"/>
-      <c r="U62" s="16"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="15"/>
+      <c r="T62" s="15"/>
+      <c r="U62" s="15"/>
     </row>
     <row r="63" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7">
+      <c r="A63" s="6">
         <v>60</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="35"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="15"/>
+      <c r="S63" s="15"/>
+      <c r="T63" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="29"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="21"/>
-      <c r="R63" s="16"/>
-      <c r="S63" s="16"/>
-      <c r="T63" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="U63" s="16"/>
+      <c r="U63" s="15"/>
     </row>
     <row r="64" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7">
+      <c r="A64" s="6">
         <v>61</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="E64" s="15"/>
+      <c r="F64" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="I64" s="15"/>
+      <c r="J64" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C64" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="E64" s="16"/>
-      <c r="F64" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="I64" s="16"/>
-      <c r="J64" s="6" t="s">
+      <c r="K64" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="M64" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="N64" s="15"/>
+      <c r="O64" s="32" t="s">
+        <v>865</v>
+      </c>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="R64" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="K64" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="L64" s="9" t="s">
-        <v>770</v>
-      </c>
-      <c r="M64" s="9" t="s">
-        <v>814</v>
-      </c>
-      <c r="N64" s="16"/>
-      <c r="O64" s="27" t="s">
-        <v>866</v>
-      </c>
-      <c r="P64" s="28"/>
-      <c r="Q64" s="9" t="s">
-        <v>680</v>
-      </c>
-      <c r="R64" s="6" t="s">
+      <c r="S64" s="22" t="s">
+        <v>894</v>
+      </c>
+      <c r="T64" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="S64" s="23" t="s">
-        <v>895</v>
-      </c>
-      <c r="T64" s="6" t="s">
+      <c r="U64" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="U64" s="6" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="65" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7">
+      <c r="A65" s="6">
         <v>62</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C65" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="E65" s="6" t="s">
+      <c r="F65" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="I65" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F65" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="I65" s="6" t="s">
+      <c r="J65" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="J65" s="6" t="s">
+      <c r="K65" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="M65" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="N65" s="15"/>
+      <c r="O65" s="32" t="s">
+        <v>866</v>
+      </c>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="R65" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="K65" s="9" t="s">
-        <v>655</v>
-      </c>
-      <c r="L65" s="9" t="s">
-        <v>771</v>
-      </c>
-      <c r="M65" s="9" t="s">
-        <v>815</v>
-      </c>
-      <c r="N65" s="16"/>
-      <c r="O65" s="27" t="s">
-        <v>867</v>
-      </c>
-      <c r="P65" s="28"/>
-      <c r="Q65" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="R65" s="6" t="s">
+      <c r="S65" s="22" t="s">
+        <v>895</v>
+      </c>
+      <c r="T65" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="S65" s="23" t="s">
-        <v>896</v>
-      </c>
-      <c r="T65" s="6" t="s">
+      <c r="U65" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="U65" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="66" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7">
+      <c r="A66" s="6">
         <v>63</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="E66" s="15"/>
+      <c r="F66" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="G66" s="15"/>
+      <c r="H66" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="I66" s="15"/>
+      <c r="J66" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C66" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="E66" s="16"/>
-      <c r="F66" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="G66" s="16"/>
-      <c r="H66" s="9" t="s">
-        <v>590</v>
-      </c>
-      <c r="I66" s="16"/>
-      <c r="J66" s="6" t="s">
+      <c r="K66" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="32" t="s">
+        <v>867</v>
+      </c>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="R66" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="K66" s="9" t="s">
-        <v>656</v>
-      </c>
-      <c r="L66" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="27" t="s">
-        <v>868</v>
-      </c>
-      <c r="P66" s="28"/>
-      <c r="Q66" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="R66" s="6" t="s">
+      <c r="S66" s="22" t="s">
+        <v>896</v>
+      </c>
+      <c r="T66" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="S66" s="23" t="s">
-        <v>897</v>
-      </c>
-      <c r="T66" s="6" t="s">
+      <c r="U66" s="5" t="s">
         <v>302</v>
-      </c>
-      <c r="U66" s="6" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7">
+      <c r="A67" s="6">
         <v>64</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="6" t="s">
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="32" t="s">
+        <v>868</v>
+      </c>
+      <c r="P67" s="33"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="15"/>
+      <c r="S67" s="23"/>
+      <c r="T67" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="L67" s="9" t="s">
-        <v>773</v>
-      </c>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="27" t="s">
-        <v>869</v>
-      </c>
-      <c r="P67" s="28"/>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="16"/>
-      <c r="S67" s="24"/>
-      <c r="T67" s="6" t="s">
+      <c r="U67" s="5" t="s">
         <v>306</v>
-      </c>
-      <c r="U67" s="6" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="68" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="7">
+      <c r="A68" s="6">
         <v>65</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="L68" s="21"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="32" t="s">
+        <v>869</v>
+      </c>
+      <c r="P68" s="33"/>
+      <c r="Q68" s="21"/>
+      <c r="R68" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="9" t="s">
-        <v>658</v>
-      </c>
-      <c r="L68" s="22"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="27" t="s">
-        <v>870</v>
-      </c>
-      <c r="P68" s="28"/>
-      <c r="Q68" s="22"/>
-      <c r="R68" s="6" t="s">
+      <c r="S68" s="24"/>
+      <c r="T68" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="S68" s="25"/>
-      <c r="T68" s="8" t="s">
+      <c r="U68" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="U68" s="6" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="69" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7">
+      <c r="A69" s="6">
         <v>66</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="E69" s="15"/>
+      <c r="F69" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="I69" s="15"/>
+      <c r="J69" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="E69" s="16"/>
-      <c r="F69" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="I69" s="16"/>
-      <c r="J69" s="6" t="s">
+      <c r="K69" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="N69" s="15"/>
+      <c r="O69" s="32" t="s">
+        <v>870</v>
+      </c>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="R69" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="K69" s="9" t="s">
-        <v>659</v>
-      </c>
-      <c r="L69" s="9" t="s">
-        <v>774</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>816</v>
-      </c>
-      <c r="N69" s="16"/>
-      <c r="O69" s="27" t="s">
-        <v>871</v>
-      </c>
-      <c r="P69" s="28"/>
-      <c r="Q69" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="R69" s="6" t="s">
+      <c r="S69" s="22" t="s">
+        <v>897</v>
+      </c>
+      <c r="T69" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="S69" s="23" t="s">
-        <v>898</v>
-      </c>
-      <c r="T69" s="6" t="s">
+      <c r="U69" s="5" t="s">
         <v>315</v>
-      </c>
-      <c r="U69" s="6" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="7">
+      <c r="A70" s="6">
         <v>67</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="32" t="s">
+        <v>871</v>
+      </c>
+      <c r="P70" s="33"/>
+      <c r="Q70" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="R70" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C70" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>592</v>
-      </c>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="L70" s="9" t="s">
-        <v>775</v>
-      </c>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="27" t="s">
-        <v>872</v>
-      </c>
-      <c r="P70" s="28"/>
-      <c r="Q70" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="R70" s="6" t="s">
+      <c r="S70" s="23"/>
+      <c r="T70" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="S70" s="24"/>
-      <c r="T70" s="6" t="s">
+      <c r="U70" s="5" t="s">
         <v>319</v>
-      </c>
-      <c r="U70" s="6" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7">
+      <c r="A71" s="6">
         <v>68</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="E71" s="15"/>
+      <c r="F71" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="I71" s="15"/>
+      <c r="J71" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C71" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="E71" s="16"/>
-      <c r="F71" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>544</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="I71" s="16"/>
-      <c r="J71" s="6" t="s">
+      <c r="K71" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="N71" s="15"/>
+      <c r="O71" s="32" t="s">
+        <v>872</v>
+      </c>
+      <c r="P71" s="33"/>
+      <c r="Q71" s="20"/>
+      <c r="R71" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="K71" s="9" t="s">
-        <v>661</v>
-      </c>
-      <c r="L71" s="9" t="s">
-        <v>776</v>
-      </c>
-      <c r="M71" s="9" t="s">
-        <v>817</v>
-      </c>
-      <c r="N71" s="16"/>
-      <c r="O71" s="27" t="s">
-        <v>873</v>
-      </c>
-      <c r="P71" s="28"/>
-      <c r="Q71" s="21"/>
-      <c r="R71" s="6" t="s">
+      <c r="S71" s="23"/>
+      <c r="T71" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="S71" s="24"/>
-      <c r="T71" s="6" t="s">
+      <c r="U71" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="U71" s="6" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7">
+      <c r="A72" s="6">
         <v>69</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="E72" s="15"/>
+      <c r="F72" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="I72" s="15"/>
+      <c r="J72" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="C72" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="E72" s="16"/>
-      <c r="F72" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="I72" s="16"/>
-      <c r="J72" s="6" t="s">
+      <c r="K72" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="L72" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="M72" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="N72" s="15"/>
+      <c r="O72" s="32" t="s">
+        <v>873</v>
+      </c>
+      <c r="P72" s="33"/>
+      <c r="Q72" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="R72" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="K72" s="9" t="s">
-        <v>662</v>
-      </c>
-      <c r="L72" s="9" t="s">
-        <v>777</v>
-      </c>
-      <c r="M72" s="9" t="s">
-        <v>818</v>
-      </c>
-      <c r="N72" s="16"/>
-      <c r="O72" s="27" t="s">
-        <v>874</v>
-      </c>
-      <c r="P72" s="28"/>
-      <c r="Q72" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="R72" s="6" t="s">
+      <c r="S72" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="T72" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="S72" s="23" t="s">
-        <v>899</v>
-      </c>
-      <c r="T72" s="6" t="s">
+      <c r="U72" s="5" t="s">
         <v>329</v>
-      </c>
-      <c r="U72" s="6" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7">
+      <c r="A73" s="6">
         <v>70</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="E73" s="15"/>
+      <c r="F73" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="N73" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="C73" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="E73" s="16"/>
-      <c r="F73" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="9" t="s">
-        <v>663</v>
-      </c>
-      <c r="L73" s="9" t="s">
-        <v>778</v>
-      </c>
-      <c r="M73" s="9" t="s">
-        <v>819</v>
-      </c>
-      <c r="N73" s="6" t="s">
+      <c r="O73" s="34"/>
+      <c r="P73" s="35"/>
+      <c r="Q73" s="20"/>
+      <c r="R73" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="O73" s="29"/>
-      <c r="P73" s="30"/>
-      <c r="Q73" s="21"/>
-      <c r="R73" s="6" t="s">
+      <c r="S73" s="23"/>
+      <c r="T73" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="S73" s="24"/>
-      <c r="T73" s="6" t="s">
+      <c r="U73" s="5" t="s">
         <v>334</v>
-      </c>
-      <c r="U73" s="6" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="7">
+      <c r="A74" s="6">
         <v>71</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="H74" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C74" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="H74" s="6" t="s">
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="32" t="s">
+        <v>874</v>
+      </c>
+      <c r="P74" s="33"/>
+      <c r="Q74" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="R74" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="27" t="s">
-        <v>875</v>
-      </c>
-      <c r="P74" s="28"/>
-      <c r="Q74" s="9" t="s">
-        <v>686</v>
-      </c>
-      <c r="R74" s="6" t="s">
+      <c r="S74" s="23"/>
+      <c r="T74" s="15"/>
+      <c r="U74" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="S74" s="24"/>
-      <c r="T74" s="16"/>
-      <c r="U74" s="6" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="75" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7">
+      <c r="A75" s="6">
         <v>72</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="E75" s="6" t="s">
+      <c r="F75" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="I75" s="15"/>
+      <c r="J75" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="F75" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="I75" s="16"/>
-      <c r="J75" s="6" t="s">
+      <c r="K75" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="N75" s="15"/>
+      <c r="O75" s="32" t="s">
+        <v>875</v>
+      </c>
+      <c r="P75" s="33"/>
+      <c r="Q75" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="R75" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="K75" s="9" t="s">
-        <v>664</v>
-      </c>
-      <c r="L75" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="M75" s="9" t="s">
-        <v>820</v>
-      </c>
-      <c r="N75" s="16"/>
-      <c r="O75" s="27" t="s">
-        <v>876</v>
-      </c>
-      <c r="P75" s="28"/>
-      <c r="Q75" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="R75" s="6" t="s">
+      <c r="S75" s="23"/>
+      <c r="T75" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="S75" s="24"/>
-      <c r="T75" s="6" t="s">
+      <c r="U75" s="5" t="s">
         <v>344</v>
-      </c>
-      <c r="U75" s="6" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="76" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="7">
+      <c r="A76" s="6">
         <v>73</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="E76" s="15"/>
+      <c r="F76" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="I76" s="15"/>
+      <c r="J76" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="E76" s="16"/>
-      <c r="F76" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="I76" s="16"/>
-      <c r="J76" s="6" t="s">
+      <c r="K76" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="L76" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="M76" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="N76" s="15"/>
+      <c r="O76" s="32" t="s">
+        <v>876</v>
+      </c>
+      <c r="P76" s="33"/>
+      <c r="Q76" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="R76" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="K76" s="9" t="s">
-        <v>665</v>
-      </c>
-      <c r="L76" s="9" t="s">
-        <v>780</v>
-      </c>
-      <c r="M76" s="9" t="s">
-        <v>821</v>
-      </c>
-      <c r="N76" s="16"/>
-      <c r="O76" s="27" t="s">
-        <v>877</v>
-      </c>
-      <c r="P76" s="28"/>
-      <c r="Q76" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="R76" s="6" t="s">
+      <c r="S76" s="22" t="s">
+        <v>899</v>
+      </c>
+      <c r="T76" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="S76" s="23" t="s">
-        <v>900</v>
-      </c>
-      <c r="T76" s="6" t="s">
+      <c r="U76" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="U76" s="6" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7">
+      <c r="A77" s="6">
         <v>74</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="E77" s="15"/>
+      <c r="F77" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="I77" s="15"/>
+      <c r="J77" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="C77" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="E77" s="16"/>
-      <c r="F77" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>597</v>
-      </c>
-      <c r="I77" s="16"/>
-      <c r="J77" s="6" t="s">
+      <c r="K77" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="L77" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="32" t="s">
+        <v>877</v>
+      </c>
+      <c r="P77" s="33"/>
+      <c r="Q77" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="R77" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="K77" s="9" t="s">
-        <v>666</v>
-      </c>
-      <c r="L77" s="9" t="s">
-        <v>781</v>
-      </c>
-      <c r="M77" s="16"/>
-      <c r="N77" s="16"/>
-      <c r="O77" s="27" t="s">
-        <v>878</v>
-      </c>
-      <c r="P77" s="28"/>
-      <c r="Q77" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="R77" s="6" t="s">
+      <c r="S77" s="15"/>
+      <c r="T77" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="S77" s="16"/>
-      <c r="T77" s="6" t="s">
+      <c r="U77" s="5" t="s">
         <v>354</v>
-      </c>
-      <c r="U77" s="6" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="7">
+      <c r="A78" s="6">
         <v>75</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="35"/>
+      <c r="Q78" s="20"/>
+      <c r="R78" s="15"/>
+      <c r="S78" s="15"/>
+      <c r="T78" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="16"/>
-      <c r="L78" s="16"/>
-      <c r="M78" s="16"/>
-      <c r="N78" s="16"/>
-      <c r="O78" s="29"/>
-      <c r="P78" s="30"/>
-      <c r="Q78" s="21"/>
-      <c r="R78" s="16"/>
-      <c r="S78" s="16"/>
-      <c r="T78" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="U78" s="16"/>
+      <c r="U78" s="15"/>
     </row>
     <row r="79" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B79" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="B79" s="31" t="s">
-        <v>359</v>
-      </c>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
-      <c r="J79" s="32"/>
-      <c r="K79" s="32"/>
-      <c r="L79" s="32"/>
-      <c r="M79" s="32"/>
-      <c r="N79" s="32"/>
-      <c r="O79" s="32"/>
-      <c r="P79" s="32"/>
-      <c r="Q79" s="32"/>
-      <c r="R79" s="32"/>
-      <c r="S79" s="32"/>
-      <c r="T79" s="32"/>
-      <c r="U79" s="33"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="37"/>
+      <c r="K79" s="37"/>
+      <c r="L79" s="37"/>
+      <c r="M79" s="37"/>
+      <c r="N79" s="37"/>
+      <c r="O79" s="37"/>
+      <c r="P79" s="37"/>
+      <c r="Q79" s="37"/>
+      <c r="R79" s="37"/>
+      <c r="S79" s="37"/>
+      <c r="T79" s="37"/>
+      <c r="U79" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="O60:P60"/>
     <mergeCell ref="O76:P76"/>
     <mergeCell ref="O77:P77"/>
     <mergeCell ref="O78:P78"/>
@@ -10266,6 +10196,69 @@
     <mergeCell ref="O69:P69"/>
     <mergeCell ref="O70:P70"/>
     <mergeCell ref="O61:P61"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/臺灣閩南語TaiwaneseCVVC拼音方案音節表.xlsx
+++ b/臺灣閩南語TaiwaneseCVVC拼音方案音節表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\UTAU-Taiwanese-Voicebank-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9B9B52-07ED-45BF-A9F0-0C8C805656C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA73F600-6199-4A94-ADF1-D0B50733DCC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480" uniqueCount="905">
   <si>
     <r>
       <rPr>
@@ -1098,18 +1098,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>si 詩</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333300"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>hi 希</t>
     </r>
   </si>
@@ -1173,18 +1161,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>sia 寫</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333300"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>hia 靴</t>
     </r>
   </si>
@@ -1236,18 +1212,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>siah 錫</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333300"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>hiah 額</t>
     </r>
   </si>
@@ -1267,18 +1231,6 @@
     <t>iak</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333300"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>siak 摔</t>
-    </r>
-  </si>
-  <si>
     <t>iam</t>
   </si>
   <si>
@@ -1302,18 +1254,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>siam 閃</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333300"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>hiam 嫌</t>
     </r>
   </si>
@@ -1353,18 +1293,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>sian 先</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333300"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>hian 賢</t>
     </r>
   </si>
@@ -1404,18 +1332,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>siang 雙</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333300"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>hiang 響</t>
     </r>
   </si>
@@ -1443,18 +1359,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>siann 聲</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333300"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>hiann 兄</t>
     </r>
   </si>
@@ -1494,18 +1398,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>siap 澀</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333300"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>hiap 脅</t>
     </r>
   </si>
@@ -1545,18 +1437,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>siat 設</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333300"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>hiat 血</t>
     </r>
   </si>
@@ -1632,18 +1512,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>siau 消</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333300"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>hiau 曉</t>
     </r>
   </si>
@@ -1750,18 +1618,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333300"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>sih 薛</t>
-    </r>
-  </si>
-  <si>
     <t>ik</t>
   </si>
   <si>
@@ -1785,18 +1641,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>sik 色</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333300"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>hik 或</t>
     </r>
   </si>
@@ -1836,18 +1680,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>sim 心</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333300"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>him 欣</t>
     </r>
   </si>
@@ -1887,18 +1719,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>sin 新</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333300"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>hin 恨</t>
     </r>
   </si>
@@ -1938,18 +1758,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>sing 生</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333300"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>hing 興</t>
     </r>
   </si>
@@ -1977,18 +1785,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>sinn 生</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333300"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>hinn 耳</t>
     </r>
   </si>
@@ -2031,18 +1827,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>sio 燒</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333300"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>hio 后</t>
     </r>
   </si>
@@ -2082,18 +1866,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>sioh 惜</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333300"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>hioh 歇</t>
     </r>
   </si>
@@ -2133,18 +1905,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>siok 俗</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333300"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>hiok 旭</t>
     </r>
   </si>
@@ -2184,18 +1944,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>siong 傷</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333300"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>hiong 鄉</t>
     </r>
   </si>
@@ -2235,18 +1983,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>sip 濕</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333300"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>hip 翕</t>
     </r>
   </si>
@@ -2274,18 +2010,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>sit 失</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333300"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>hit</t>
     </r>
   </si>
@@ -2337,18 +2061,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>siu 收</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333300"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>hiu 休</t>
     </r>
   </si>
@@ -2369,18 +2081,6 @@
   </si>
   <si>
     <t>iunn</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333300"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>siunn 賞</t>
-    </r>
   </si>
   <si>
     <r>
@@ -4889,26 +4589,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ciong 沖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cip 緝</t>
-  </si>
-  <si>
-    <t>cit 七</t>
-  </si>
-  <si>
-    <t>ciu 秋</t>
-  </si>
-  <si>
-    <t>ciunn 搶</t>
-  </si>
-  <si>
     <t>cng 倉</t>
   </si>
   <si>
@@ -5005,66 +4685,6 @@
     <t>cenn 星</t>
   </si>
   <si>
-    <t>ci 癡</t>
-  </si>
-  <si>
-    <t>cia 車</t>
-  </si>
-  <si>
-    <t>ciah 赤</t>
-  </si>
-  <si>
-    <t>ciak</t>
-  </si>
-  <si>
-    <t>ciam 簽</t>
-  </si>
-  <si>
-    <t>cian 千</t>
-  </si>
-  <si>
-    <t>ciang 沖</t>
-  </si>
-  <si>
-    <t>ciann 請</t>
-  </si>
-  <si>
-    <t>ciap 妾</t>
-  </si>
-  <si>
-    <t>ciat 切</t>
-  </si>
-  <si>
-    <t>ciau 超</t>
-  </si>
-  <si>
-    <t>cih</t>
-  </si>
-  <si>
-    <t>cik 策</t>
-  </si>
-  <si>
-    <t>cim 深</t>
-  </si>
-  <si>
-    <t>cin 親</t>
-  </si>
-  <si>
-    <t>cing 清</t>
-  </si>
-  <si>
-    <t>cinn 鮮</t>
-  </si>
-  <si>
-    <t>cio 笑</t>
-  </si>
-  <si>
-    <t>cioh 尺</t>
-  </si>
-  <si>
-    <t>ciok 雀</t>
-  </si>
-  <si>
     <t>kah 較</t>
   </si>
   <si>
@@ -5435,78 +5055,6 @@
   </si>
   <si>
     <t>zenn 爭</t>
-  </si>
-  <si>
-    <t>zi 支</t>
-  </si>
-  <si>
-    <t>zia 者</t>
-  </si>
-  <si>
-    <t>ziah 食</t>
-  </si>
-  <si>
-    <t>ziam 針</t>
-  </si>
-  <si>
-    <t>zian 煎</t>
-  </si>
-  <si>
-    <t>ziang 掌</t>
-  </si>
-  <si>
-    <t>ziann 正</t>
-  </si>
-  <si>
-    <t>ziap 接</t>
-  </si>
-  <si>
-    <t>ziat 節</t>
-  </si>
-  <si>
-    <t>ziau 招</t>
-  </si>
-  <si>
-    <t>zih 舌</t>
-  </si>
-  <si>
-    <t>zik 責</t>
-  </si>
-  <si>
-    <t>zim 斟</t>
-  </si>
-  <si>
-    <t>zin 真</t>
-  </si>
-  <si>
-    <t>zing 爭</t>
-  </si>
-  <si>
-    <t>zinn 錢</t>
-  </si>
-  <si>
-    <t>zio 招</t>
-  </si>
-  <si>
-    <t>zioh 石</t>
-  </si>
-  <si>
-    <t>ziok 祝</t>
-  </si>
-  <si>
-    <t>ziong 終</t>
-  </si>
-  <si>
-    <t>zip 集</t>
-  </si>
-  <si>
-    <t>zit 織</t>
-  </si>
-  <si>
-    <t>ziu 周</t>
-  </si>
-  <si>
-    <t>ziunn 漿</t>
   </si>
   <si>
     <t>zng 粧</t>
@@ -5665,6 +5213,240 @@
     <t xml:space="preserve">           聲母
 韻母</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>z/ji</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c/qi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s/xi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji 支</t>
+  </si>
+  <si>
+    <t>jia 者</t>
+  </si>
+  <si>
+    <t>jiah 食</t>
+  </si>
+  <si>
+    <t>jiam 針</t>
+  </si>
+  <si>
+    <t>jian 煎</t>
+  </si>
+  <si>
+    <t>jiang 掌</t>
+  </si>
+  <si>
+    <t>jiann 正</t>
+  </si>
+  <si>
+    <t>jiap 接</t>
+  </si>
+  <si>
+    <t>jiat 節</t>
+  </si>
+  <si>
+    <t>jiau 招</t>
+  </si>
+  <si>
+    <t>jih 舌</t>
+  </si>
+  <si>
+    <t>jik 責</t>
+  </si>
+  <si>
+    <t>jim 斟</t>
+  </si>
+  <si>
+    <t>jin 真</t>
+  </si>
+  <si>
+    <t>jing 爭</t>
+  </si>
+  <si>
+    <t>jinn 錢</t>
+  </si>
+  <si>
+    <t>jio 招</t>
+  </si>
+  <si>
+    <t>jioh 石</t>
+  </si>
+  <si>
+    <t>jiok 祝</t>
+  </si>
+  <si>
+    <t>jiong 終</t>
+  </si>
+  <si>
+    <t>jip 集</t>
+  </si>
+  <si>
+    <t>jit 織</t>
+  </si>
+  <si>
+    <t>jiu 周</t>
+  </si>
+  <si>
+    <t>jiunn 漿</t>
+  </si>
+  <si>
+    <t>qi 癡</t>
+  </si>
+  <si>
+    <t>qia 車</t>
+  </si>
+  <si>
+    <t>qiah 赤</t>
+  </si>
+  <si>
+    <t>qiak</t>
+  </si>
+  <si>
+    <t>qiam 簽</t>
+  </si>
+  <si>
+    <t>qian 千</t>
+  </si>
+  <si>
+    <t>qiang 沖</t>
+  </si>
+  <si>
+    <t>qiann 請</t>
+  </si>
+  <si>
+    <t>qiap 妾</t>
+  </si>
+  <si>
+    <t>qiat 切</t>
+  </si>
+  <si>
+    <t>qiau 超</t>
+  </si>
+  <si>
+    <t>qih</t>
+  </si>
+  <si>
+    <t>qik 策</t>
+  </si>
+  <si>
+    <t>qim 深</t>
+  </si>
+  <si>
+    <t>qin 親</t>
+  </si>
+  <si>
+    <t>qing 清</t>
+  </si>
+  <si>
+    <t>qinn 鮮</t>
+  </si>
+  <si>
+    <t>qio 笑</t>
+  </si>
+  <si>
+    <t>qioh 尺</t>
+  </si>
+  <si>
+    <t>qiok 雀</t>
+  </si>
+  <si>
+    <t>qiong 沖</t>
+  </si>
+  <si>
+    <t>qip 緝</t>
+  </si>
+  <si>
+    <t>qit 七</t>
+  </si>
+  <si>
+    <t>qiu 秋</t>
+  </si>
+  <si>
+    <t>qiunn 搶</t>
+  </si>
+  <si>
+    <t>xi 詩</t>
+  </si>
+  <si>
+    <t>xia 寫</t>
+  </si>
+  <si>
+    <t>xiah 錫</t>
+  </si>
+  <si>
+    <t>xiak 摔</t>
+  </si>
+  <si>
+    <t>xiam 閃</t>
+  </si>
+  <si>
+    <t>xian 先</t>
+  </si>
+  <si>
+    <t>xiang 雙</t>
+  </si>
+  <si>
+    <t>xiann 聲</t>
+  </si>
+  <si>
+    <t>xiap 澀</t>
+  </si>
+  <si>
+    <t>xiat 設</t>
+  </si>
+  <si>
+    <t>xiau 消</t>
+  </si>
+  <si>
+    <t>xih 薛</t>
+  </si>
+  <si>
+    <t>xik 色</t>
+  </si>
+  <si>
+    <t>xim 心</t>
+  </si>
+  <si>
+    <t>xin 新</t>
+  </si>
+  <si>
+    <t>xing 生</t>
+  </si>
+  <si>
+    <t>xinn 生</t>
+  </si>
+  <si>
+    <t>xio 燒</t>
+  </si>
+  <si>
+    <t>xioh 惜</t>
+  </si>
+  <si>
+    <t>xiok 俗</t>
+  </si>
+  <si>
+    <t>xiong 傷</t>
+  </si>
+  <si>
+    <t>xip 濕</t>
+  </si>
+  <si>
+    <t>xit 失</t>
+  </si>
+  <si>
+    <t>xiu 收</t>
+  </si>
+  <si>
+    <t>xiunn 賞</t>
   </si>
 </sst>
 </file>
@@ -5674,7 +5456,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5768,6 +5550,20 @@
       <color rgb="FF00B0F0"/>
       <name val="Microsoft JhengHei"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -5873,7 +5669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5952,23 +5748,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -5994,8 +5775,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6345,8 +6177,8 @@
   </sheetPr>
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="J22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44:R50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6369,29 +6201,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
-        <v>901</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
+      <c r="A1" s="34" t="s">
+        <v>826</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
       <c r="V1" s="13"/>
     </row>
     <row r="2" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -6399,25 +6231,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>2</v>
@@ -6426,29 +6258,29 @@
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="26" t="s">
-        <v>603</v>
-      </c>
-      <c r="P2" s="27"/>
+      <c r="O2" s="37" t="s">
+        <v>828</v>
+      </c>
+      <c r="P2" s="38"/>
       <c r="Q2" s="2" t="s">
-        <v>604</v>
+        <v>829</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>666</v>
+        <v>830</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>7</v>
@@ -6465,22 +6297,22 @@
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>11</v>
@@ -6489,23 +6321,23 @@
         <v>12</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>605</v>
+        <v>580</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>781</v>
+        <v>730</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>782</v>
+        <v>731</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="28" t="s">
-        <v>821</v>
-      </c>
-      <c r="P3" s="29"/>
+      <c r="O3" s="35" t="s">
+        <v>770</v>
+      </c>
+      <c r="P3" s="36"/>
       <c r="Q3" s="9" t="s">
-        <v>689</v>
+        <v>658</v>
       </c>
       <c r="R3" s="10" t="s">
         <v>14</v>
@@ -6526,39 +6358,39 @@
         <v>17</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="9" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>606</v>
+        <v>581</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>724</v>
+        <v>673</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
-      <c r="O4" s="28" t="s">
-        <v>822</v>
-      </c>
-      <c r="P4" s="29"/>
+      <c r="O4" s="35" t="s">
+        <v>771</v>
+      </c>
+      <c r="P4" s="36"/>
       <c r="Q4" s="9" t="s">
-        <v>690</v>
+        <v>659</v>
       </c>
       <c r="R4" s="10" t="s">
         <v>19</v>
@@ -6579,22 +6411,22 @@
         <v>22</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>24</v>
@@ -6603,23 +6435,23 @@
         <v>25</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>607</v>
+        <v>582</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>725</v>
+        <v>674</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>783</v>
+        <v>732</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="28" t="s">
-        <v>823</v>
-      </c>
-      <c r="P5" s="29"/>
+      <c r="O5" s="35" t="s">
+        <v>772</v>
+      </c>
+      <c r="P5" s="36"/>
       <c r="Q5" s="9" t="s">
-        <v>691</v>
+        <v>660</v>
       </c>
       <c r="R5" s="10" t="s">
         <v>27</v>
@@ -6640,33 +6472,33 @@
         <v>30</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="9" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="9" t="s">
-        <v>608</v>
+        <v>583</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>726</v>
+        <v>675</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
-      <c r="O6" s="28" t="s">
-        <v>824</v>
-      </c>
-      <c r="P6" s="29"/>
+      <c r="O6" s="35" t="s">
+        <v>773</v>
+      </c>
+      <c r="P6" s="36"/>
       <c r="Q6" s="9" t="s">
-        <v>692</v>
+        <v>661</v>
       </c>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
@@ -6685,41 +6517,41 @@
         <v>33</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="9" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10" t="s">
         <v>34</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>609</v>
+        <v>584</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>727</v>
+        <v>676</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>784</v>
+        <v>733</v>
       </c>
       <c r="N7" s="11"/>
-      <c r="O7" s="28" t="s">
-        <v>825</v>
-      </c>
-      <c r="P7" s="29"/>
+      <c r="O7" s="35" t="s">
+        <v>774</v>
+      </c>
+      <c r="P7" s="36"/>
       <c r="Q7" s="9" t="s">
-        <v>693</v>
+        <v>662</v>
       </c>
       <c r="R7" s="10" t="s">
         <v>35</v>
@@ -6744,31 +6576,31 @@
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="9" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="10" t="s">
         <v>39</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>610</v>
+        <v>585</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>728</v>
+        <v>677</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>785</v>
+        <v>734</v>
       </c>
       <c r="N8" s="11"/>
-      <c r="O8" s="28" t="s">
-        <v>826</v>
-      </c>
-      <c r="P8" s="29"/>
+      <c r="O8" s="35" t="s">
+        <v>775</v>
+      </c>
+      <c r="P8" s="36"/>
       <c r="Q8" s="9" t="s">
-        <v>694</v>
+        <v>663</v>
       </c>
       <c r="R8" s="10" t="s">
         <v>40</v>
@@ -6789,41 +6621,41 @@
         <v>43</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="9" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="10" t="s">
         <v>44</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>729</v>
+        <v>678</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>786</v>
+        <v>735</v>
       </c>
       <c r="N9" s="11"/>
-      <c r="O9" s="28" t="s">
-        <v>827</v>
-      </c>
-      <c r="P9" s="29"/>
+      <c r="O9" s="35" t="s">
+        <v>776</v>
+      </c>
+      <c r="P9" s="36"/>
       <c r="Q9" s="9" t="s">
-        <v>695</v>
+        <v>664</v>
       </c>
       <c r="R9" s="10" t="s">
         <v>45</v>
@@ -6844,41 +6676,41 @@
         <v>48</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="9" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="10" t="s">
         <v>49</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>612</v>
+        <v>587</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>730</v>
+        <v>679</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>787</v>
+        <v>736</v>
       </c>
       <c r="N10" s="11"/>
-      <c r="O10" s="28" t="s">
-        <v>828</v>
-      </c>
-      <c r="P10" s="29"/>
+      <c r="O10" s="35" t="s">
+        <v>777</v>
+      </c>
+      <c r="P10" s="36"/>
       <c r="Q10" s="9" t="s">
-        <v>696</v>
+        <v>665</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>50</v>
@@ -6900,30 +6732,30 @@
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="9" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="9" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="9" t="s">
-        <v>613</v>
+        <v>588</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>731</v>
+        <v>680</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="31"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="40"/>
       <c r="Q11" s="9" t="s">
-        <v>697</v>
+        <v>666</v>
       </c>
       <c r="R11" s="10" t="s">
         <v>54</v>
@@ -6955,8 +6787,8 @@
       <c r="L12" s="18"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="31"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="40"/>
       <c r="Q12" s="18"/>
       <c r="R12" s="10" t="s">
         <v>58</v>
@@ -6979,31 +6811,31 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="9" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="10" t="s">
         <v>61</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>732</v>
+        <v>681</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>788</v>
+        <v>737</v>
       </c>
       <c r="N13" s="11"/>
-      <c r="O13" s="28" t="s">
-        <v>829</v>
-      </c>
-      <c r="P13" s="29"/>
+      <c r="O13" s="35" t="s">
+        <v>778</v>
+      </c>
+      <c r="P13" s="36"/>
       <c r="Q13" s="9" t="s">
-        <v>698</v>
+        <v>667</v>
       </c>
       <c r="R13" s="10" t="s">
         <v>62</v>
@@ -7024,37 +6856,37 @@
         <v>65</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="9" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="10" t="s">
         <v>66</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>615</v>
+        <v>590</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>733</v>
+        <v>682</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
-      <c r="O14" s="28" t="s">
-        <v>830</v>
-      </c>
-      <c r="P14" s="29"/>
+      <c r="O14" s="35" t="s">
+        <v>779</v>
+      </c>
+      <c r="P14" s="36"/>
       <c r="Q14" s="9" t="s">
-        <v>699</v>
+        <v>668</v>
       </c>
       <c r="R14" s="10" t="s">
         <v>67</v>
@@ -7075,22 +6907,22 @@
         <v>70</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>71</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>72</v>
@@ -7099,23 +6931,23 @@
         <v>73</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>616</v>
+        <v>591</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>734</v>
+        <v>683</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>789</v>
+        <v>738</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="O15" s="28" t="s">
-        <v>831</v>
-      </c>
-      <c r="P15" s="29"/>
+      <c r="O15" s="35" t="s">
+        <v>780</v>
+      </c>
+      <c r="P15" s="36"/>
       <c r="Q15" s="9" t="s">
-        <v>700</v>
+        <v>669</v>
       </c>
       <c r="R15" s="10" t="s">
         <v>75</v>
@@ -7136,19 +6968,19 @@
         <v>78</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>79</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="10" t="s">
@@ -7158,15 +6990,15 @@
         <v>81</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="11"/>
       <c r="N16" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="O16" s="30"/>
-      <c r="P16" s="31"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="40"/>
       <c r="Q16" s="18"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
@@ -7181,22 +7013,22 @@
         <v>83</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>84</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>85</v>
@@ -7205,23 +7037,23 @@
         <v>86</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>618</v>
+        <v>593</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>735</v>
+        <v>684</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>790</v>
+        <v>739</v>
       </c>
       <c r="N17" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="O17" s="28" t="s">
-        <v>832</v>
-      </c>
-      <c r="P17" s="29"/>
+      <c r="O17" s="35" t="s">
+        <v>781</v>
+      </c>
+      <c r="P17" s="36"/>
       <c r="Q17" s="9" t="s">
-        <v>701</v>
+        <v>670</v>
       </c>
       <c r="R17" s="10" t="s">
         <v>88</v>
@@ -7242,20 +7074,20 @@
         <v>91</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="10" t="s">
         <v>92</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>93</v>
@@ -7264,21 +7096,21 @@
         <v>94</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>619</v>
+        <v>594</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>736</v>
+        <v>685</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="O18" s="28" t="s">
-        <v>833</v>
-      </c>
-      <c r="P18" s="29"/>
+      <c r="O18" s="35" t="s">
+        <v>782</v>
+      </c>
+      <c r="P18" s="36"/>
       <c r="Q18" s="9" t="s">
-        <v>702</v>
+        <v>671</v>
       </c>
       <c r="R18" s="10" t="s">
         <v>96</v>
@@ -7300,32 +7132,32 @@
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="9" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="9" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="9" t="s">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>737</v>
+        <v>686</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
-      <c r="O19" s="28" t="s">
-        <v>834</v>
-      </c>
-      <c r="P19" s="29"/>
+      <c r="O19" s="35" t="s">
+        <v>783</v>
+      </c>
+      <c r="P19" s="36"/>
       <c r="Q19" s="9" t="s">
-        <v>703</v>
+        <v>672</v>
       </c>
       <c r="R19" s="10" t="s">
         <v>100</v>
@@ -7355,12 +7187,12 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="9" t="s">
-        <v>738</v>
+        <v>687</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="31"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="40"/>
       <c r="Q20" s="18"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
@@ -7375,22 +7207,22 @@
         <v>104</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>105</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>106</v>
@@ -7399,35 +7231,35 @@
         <v>107</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>621</v>
+        <v>596</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>739</v>
+        <v>688</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>791</v>
+        <v>740</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="O21" s="28" t="s">
-        <v>835</v>
-      </c>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="9" t="s">
-        <v>704</v>
-      </c>
-      <c r="R21" s="10" t="s">
+      <c r="O21" s="41" t="s">
+        <v>831</v>
+      </c>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="43" t="s">
+        <v>855</v>
+      </c>
+      <c r="R21" s="43" t="s">
+        <v>880</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="T21" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="S21" s="9" t="s">
-        <v>878</v>
-      </c>
-      <c r="T21" s="10" t="s">
+      <c r="U21" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="U21" s="10" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7435,52 +7267,52 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="9" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="9" t="s">
-        <v>622</v>
+        <v>597</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>740</v>
+        <v>689</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>792</v>
+        <v>741</v>
       </c>
       <c r="N22" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="O22" s="41" t="s">
+        <v>832</v>
+      </c>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="43" t="s">
+        <v>856</v>
+      </c>
+      <c r="R22" s="43" t="s">
+        <v>881</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="T22" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="O22" s="28" t="s">
-        <v>836</v>
-      </c>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="R22" s="10" t="s">
+      <c r="U22" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="S22" s="9" t="s">
-        <v>879</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7488,54 +7320,54 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="9" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="N23" s="11"/>
+      <c r="O23" s="41" t="s">
+        <v>833</v>
+      </c>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="43" t="s">
+        <v>857</v>
+      </c>
+      <c r="R23" s="43" t="s">
+        <v>882</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="T23" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="U23" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>741</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>793</v>
-      </c>
-      <c r="N23" s="11"/>
-      <c r="O23" s="28" t="s">
-        <v>837</v>
-      </c>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="R23" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="S23" s="9" t="s">
-        <v>880</v>
-      </c>
-      <c r="T23" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="U23" s="10" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7543,37 +7375,37 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="9" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="9" t="s">
-        <v>624</v>
+        <v>599</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>742</v>
+        <v>691</v>
       </c>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="R24" s="10" t="s">
-        <v>126</v>
+      <c r="O24" s="44"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="43" t="s">
+        <v>858</v>
+      </c>
+      <c r="R24" s="43" t="s">
+        <v>883</v>
       </c>
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
@@ -7584,50 +7416,50 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="9" t="s">
-        <v>512</v>
+        <v>487</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="L25" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="M25" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="M25" s="9" t="s">
-        <v>794</v>
-      </c>
       <c r="N25" s="11"/>
-      <c r="O25" s="28" t="s">
-        <v>838</v>
-      </c>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="9" t="s">
-        <v>708</v>
-      </c>
-      <c r="R25" s="10" t="s">
-        <v>129</v>
+      <c r="O25" s="41" t="s">
+        <v>834</v>
+      </c>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="43" t="s">
+        <v>859</v>
+      </c>
+      <c r="R25" s="43" t="s">
+        <v>884</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>881</v>
+        <v>806</v>
       </c>
       <c r="T25" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7635,56 +7467,56 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="9" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>626</v>
+        <v>601</v>
       </c>
       <c r="L26" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="M26" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="M26" s="9" t="s">
-        <v>795</v>
-      </c>
       <c r="N26" s="11"/>
-      <c r="O26" s="28" t="s">
-        <v>839</v>
-      </c>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="9" t="s">
-        <v>709</v>
-      </c>
-      <c r="R26" s="10" t="s">
-        <v>134</v>
+      <c r="O26" s="41" t="s">
+        <v>835</v>
+      </c>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="43" t="s">
+        <v>860</v>
+      </c>
+      <c r="R26" s="43" t="s">
+        <v>885</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>882</v>
+        <v>807</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7692,13 +7524,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -7706,34 +7538,34 @@
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="M27" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="M27" s="9" t="s">
-        <v>796</v>
-      </c>
       <c r="N27" s="11"/>
-      <c r="O27" s="28" t="s">
-        <v>840</v>
-      </c>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="9" t="s">
-        <v>710</v>
-      </c>
-      <c r="R27" s="10" t="s">
-        <v>139</v>
+      <c r="O27" s="41" t="s">
+        <v>836</v>
+      </c>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="43" t="s">
+        <v>861</v>
+      </c>
+      <c r="R27" s="43" t="s">
+        <v>886</v>
       </c>
       <c r="S27" s="9" t="s">
-        <v>883</v>
+        <v>808</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="U27" s="10" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7741,46 +7573,46 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="9" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="9" t="s">
-        <v>627</v>
+        <v>602</v>
       </c>
       <c r="L28" s="18"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
-      <c r="O28" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="9" t="s">
-        <v>711</v>
-      </c>
-      <c r="R28" s="10" t="s">
-        <v>143</v>
+      <c r="O28" s="41" t="s">
+        <v>837</v>
+      </c>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="43" t="s">
+        <v>862</v>
+      </c>
+      <c r="R28" s="43" t="s">
+        <v>887</v>
       </c>
       <c r="S28" s="11"/>
       <c r="T28" s="10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7788,48 +7620,48 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="9" t="s">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="10" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>628</v>
+        <v>603</v>
       </c>
       <c r="L29" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="M29" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="M29" s="9" t="s">
-        <v>797</v>
-      </c>
       <c r="N29" s="11"/>
-      <c r="O29" s="28" t="s">
-        <v>842</v>
-      </c>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="9" t="s">
-        <v>712</v>
-      </c>
-      <c r="R29" s="10" t="s">
-        <v>148</v>
+      <c r="O29" s="41" t="s">
+        <v>838</v>
+      </c>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="43" t="s">
+        <v>863</v>
+      </c>
+      <c r="R29" s="43" t="s">
+        <v>888</v>
       </c>
       <c r="S29" s="11"/>
       <c r="T29" s="10" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="U29" s="10" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7837,56 +7669,56 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="9" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="10" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="L30" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="M30" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="M30" s="9" t="s">
-        <v>798</v>
-      </c>
       <c r="N30" s="11"/>
-      <c r="O30" s="28" t="s">
-        <v>843</v>
-      </c>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="9" t="s">
-        <v>713</v>
-      </c>
-      <c r="R30" s="10" t="s">
-        <v>153</v>
+      <c r="O30" s="41" t="s">
+        <v>839</v>
+      </c>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="43" t="s">
+        <v>864</v>
+      </c>
+      <c r="R30" s="43" t="s">
+        <v>889</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>884</v>
+        <v>809</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7894,62 +7726,62 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>630</v>
+        <v>605</v>
       </c>
       <c r="L31" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="M31" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="M31" s="9" t="s">
-        <v>799</v>
-      </c>
       <c r="N31" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="O31" s="28" t="s">
-        <v>844</v>
-      </c>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="9" t="s">
-        <v>714</v>
-      </c>
-      <c r="R31" s="10" t="s">
-        <v>161</v>
+        <v>150</v>
+      </c>
+      <c r="O31" s="41" t="s">
+        <v>840</v>
+      </c>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="43" t="s">
+        <v>865</v>
+      </c>
+      <c r="R31" s="43" t="s">
+        <v>890</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>885</v>
+        <v>810</v>
       </c>
       <c r="T31" s="10" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="U31" s="10" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7957,7 +7789,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -7966,28 +7798,28 @@
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="10" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="9" t="s">
-        <v>631</v>
+        <v>606</v>
       </c>
       <c r="L32" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="M32" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="M32" s="9" t="s">
-        <v>800</v>
-      </c>
       <c r="N32" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="O32" s="30"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="11"/>
+        <v>155</v>
+      </c>
+      <c r="O32" s="44"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
       <c r="S32" s="11"/>
       <c r="T32" s="10" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="U32" s="11"/>
     </row>
@@ -7996,7 +7828,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -8010,14 +7842,14 @@
       <c r="L33" s="18"/>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="11"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
       <c r="U33" s="10" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8025,47 +7857,47 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="K34" s="11"/>
       <c r="L34" s="9" t="s">
-        <v>750</v>
+        <v>699</v>
       </c>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
-      <c r="O34" s="28" t="s">
-        <v>845</v>
-      </c>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="9" t="s">
-        <v>715</v>
-      </c>
-      <c r="R34" s="10" t="s">
-        <v>173</v>
+      <c r="O34" s="41" t="s">
+        <v>841</v>
+      </c>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="43" t="s">
+        <v>866</v>
+      </c>
+      <c r="R34" s="43" t="s">
+        <v>891</v>
       </c>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
@@ -8076,54 +7908,54 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="9" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="10" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>632</v>
+        <v>607</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>751</v>
+        <v>700</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>801</v>
+        <v>750</v>
       </c>
       <c r="N35" s="11"/>
-      <c r="O35" s="28" t="s">
-        <v>846</v>
-      </c>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="9" t="s">
-        <v>716</v>
-      </c>
-      <c r="R35" s="10" t="s">
-        <v>176</v>
+      <c r="O35" s="41" t="s">
+        <v>842</v>
+      </c>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="43" t="s">
+        <v>867</v>
+      </c>
+      <c r="R35" s="43" t="s">
+        <v>892</v>
       </c>
       <c r="S35" s="11"/>
       <c r="T35" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="U35" s="10" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8131,50 +7963,50 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="9" t="s">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="10" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>633</v>
+        <v>608</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>752</v>
+        <v>701</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>802</v>
+        <v>751</v>
       </c>
       <c r="N36" s="11"/>
-      <c r="O36" s="28" t="s">
-        <v>847</v>
-      </c>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="R36" s="10" t="s">
-        <v>181</v>
+      <c r="O36" s="41" t="s">
+        <v>843</v>
+      </c>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="43" t="s">
+        <v>868</v>
+      </c>
+      <c r="R36" s="43" t="s">
+        <v>893</v>
       </c>
       <c r="S36" s="9" t="s">
-        <v>886</v>
+        <v>811</v>
       </c>
       <c r="T36" s="10" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8182,56 +8014,56 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="9" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="10" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>634</v>
+        <v>609</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>753</v>
+        <v>702</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>803</v>
+        <v>752</v>
       </c>
       <c r="N37" s="11"/>
-      <c r="O37" s="28" t="s">
-        <v>848</v>
-      </c>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="9" t="s">
-        <v>718</v>
-      </c>
-      <c r="R37" s="10" t="s">
-        <v>186</v>
+      <c r="O37" s="41" t="s">
+        <v>844</v>
+      </c>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="43" t="s">
+        <v>869</v>
+      </c>
+      <c r="R37" s="43" t="s">
+        <v>894</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>887</v>
+        <v>812</v>
       </c>
       <c r="T37" s="10" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="U37" s="10" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8239,54 +8071,54 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="9" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="10" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>754</v>
+        <v>703</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>804</v>
+        <v>753</v>
       </c>
       <c r="N38" s="11"/>
-      <c r="O38" s="28" t="s">
-        <v>849</v>
-      </c>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="R38" s="10" t="s">
-        <v>191</v>
+      <c r="O38" s="41" t="s">
+        <v>845</v>
+      </c>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="43" t="s">
+        <v>870</v>
+      </c>
+      <c r="R38" s="43" t="s">
+        <v>895</v>
       </c>
       <c r="S38" s="11"/>
       <c r="T38" s="10" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8294,48 +8126,48 @@
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="9" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="9" t="s">
-        <v>636</v>
+        <v>611</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>755</v>
+        <v>704</v>
       </c>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
-      <c r="O39" s="28" t="s">
-        <v>850</v>
-      </c>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="R39" s="10" t="s">
-        <v>195</v>
+      <c r="O39" s="41" t="s">
+        <v>846</v>
+      </c>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="43" t="s">
+        <v>871</v>
+      </c>
+      <c r="R39" s="43" t="s">
+        <v>896</v>
       </c>
       <c r="S39" s="11"/>
       <c r="T39" s="10" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="U39" s="10" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8343,14 +8175,14 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="9" t="s">
-        <v>524</v>
+        <v>499</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
@@ -8359,10 +8191,10 @@
       <c r="L40" s="18"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="11"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
       <c r="S40" s="11"/>
       <c r="T40" s="11"/>
       <c r="U40" s="11"/>
@@ -8372,56 +8204,56 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="9" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="10" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>756</v>
+        <v>705</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>805</v>
+        <v>754</v>
       </c>
       <c r="N41" s="11"/>
-      <c r="O41" s="28" t="s">
-        <v>851</v>
-      </c>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="9" t="s">
-        <v>721</v>
-      </c>
-      <c r="R41" s="10" t="s">
-        <v>201</v>
+      <c r="O41" s="41" t="s">
+        <v>847</v>
+      </c>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="43" t="s">
+        <v>872</v>
+      </c>
+      <c r="R41" s="43" t="s">
+        <v>897</v>
       </c>
       <c r="S41" s="9" t="s">
-        <v>888</v>
+        <v>813</v>
       </c>
       <c r="T41" s="10" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="U41" s="10" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8429,70 +8261,70 @@
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="9" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
       <c r="J42" s="10" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>638</v>
+        <v>613</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>757</v>
+        <v>706</v>
       </c>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
-      <c r="O42" s="28" t="s">
-        <v>852</v>
-      </c>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="9" t="s">
-        <v>722</v>
-      </c>
-      <c r="R42" s="10" t="s">
-        <v>206</v>
+      <c r="O42" s="41" t="s">
+        <v>848</v>
+      </c>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="43" t="s">
+        <v>873</v>
+      </c>
+      <c r="R42" s="43" t="s">
+        <v>898</v>
       </c>
       <c r="S42" s="11"/>
       <c r="T42" s="10" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="40" t="s">
-        <v>902</v>
+      <c r="B43" s="26" t="s">
+        <v>827</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>2</v>
@@ -8501,29 +8333,29 @@
         <v>3</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="O43" s="26" t="s">
-        <v>603</v>
-      </c>
-      <c r="P43" s="27"/>
+        <v>577</v>
+      </c>
+      <c r="O43" s="37" t="s">
+        <v>578</v>
+      </c>
+      <c r="P43" s="38"/>
       <c r="Q43" s="2" t="s">
-        <v>604</v>
+        <v>579</v>
       </c>
       <c r="R43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="T43" s="2" t="s">
         <v>7</v>
@@ -8537,50 +8369,50 @@
         <v>41</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="8" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
       <c r="I44" s="15"/>
       <c r="J44" s="5" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>639</v>
+        <v>614</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>758</v>
+        <v>707</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>806</v>
+        <v>755</v>
       </c>
       <c r="N44" s="15"/>
-      <c r="O44" s="32" t="s">
-        <v>853</v>
-      </c>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="8" t="s">
-        <v>723</v>
-      </c>
-      <c r="R44" s="5" t="s">
-        <v>211</v>
+      <c r="O44" s="47" t="s">
+        <v>849</v>
+      </c>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="49" t="s">
+        <v>874</v>
+      </c>
+      <c r="R44" s="49" t="s">
+        <v>899</v>
       </c>
       <c r="S44" s="8" t="s">
-        <v>889</v>
+        <v>814</v>
       </c>
       <c r="T44" s="5" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="U44" s="5" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8588,50 +8420,50 @@
         <v>42</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="8" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="I45" s="15"/>
       <c r="J45" s="5" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>640</v>
+        <v>615</v>
       </c>
       <c r="L45" s="19" t="s">
-        <v>759</v>
+        <v>708</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>807</v>
+        <v>756</v>
       </c>
       <c r="N45" s="15"/>
-      <c r="O45" s="32" t="s">
-        <v>854</v>
-      </c>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="19" t="s">
-        <v>667</v>
-      </c>
-      <c r="R45" s="5" t="s">
-        <v>216</v>
+      <c r="O45" s="47" t="s">
+        <v>850</v>
+      </c>
+      <c r="P45" s="48"/>
+      <c r="Q45" s="49" t="s">
+        <v>875</v>
+      </c>
+      <c r="R45" s="49" t="s">
+        <v>900</v>
       </c>
       <c r="S45" s="8" t="s">
-        <v>890</v>
+        <v>815</v>
       </c>
       <c r="T45" s="5" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="U45" s="5" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8639,7 +8471,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
@@ -8649,34 +8481,34 @@
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
       <c r="J46" s="5" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>641</v>
+        <v>616</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>760</v>
+        <v>709</v>
       </c>
       <c r="M46" s="15"/>
       <c r="N46" s="15"/>
-      <c r="O46" s="32" t="s">
-        <v>855</v>
-      </c>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="R46" s="5" t="s">
-        <v>221</v>
+      <c r="O46" s="47" t="s">
+        <v>851</v>
+      </c>
+      <c r="P46" s="48"/>
+      <c r="Q46" s="49" t="s">
+        <v>876</v>
+      </c>
+      <c r="R46" s="49" t="s">
+        <v>901</v>
       </c>
       <c r="S46" s="8" t="s">
-        <v>891</v>
+        <v>816</v>
       </c>
       <c r="T46" s="5" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="U46" s="5" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8684,52 +8516,52 @@
         <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="8" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>579</v>
+        <v>554</v>
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
       <c r="K47" s="8" t="s">
-        <v>642</v>
+        <v>617</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>761</v>
+        <v>710</v>
       </c>
       <c r="M47" s="15"/>
       <c r="N47" s="15"/>
-      <c r="O47" s="32" t="s">
-        <v>856</v>
-      </c>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="8" t="s">
-        <v>669</v>
-      </c>
-      <c r="R47" s="5" t="s">
-        <v>225</v>
+      <c r="O47" s="47" t="s">
+        <v>852</v>
+      </c>
+      <c r="P47" s="48"/>
+      <c r="Q47" s="49" t="s">
+        <v>877</v>
+      </c>
+      <c r="R47" s="49" t="s">
+        <v>902</v>
       </c>
       <c r="S47" s="8" t="s">
-        <v>892</v>
+        <v>817</v>
       </c>
       <c r="T47" s="5" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="U47" s="5" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8737,58 +8569,58 @@
         <v>45</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="8" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>530</v>
+        <v>505</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>580</v>
+        <v>555</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>643</v>
+        <v>618</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>762</v>
+        <v>711</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>808</v>
+        <v>757</v>
       </c>
       <c r="N48" s="15"/>
-      <c r="O48" s="32" t="s">
-        <v>857</v>
-      </c>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="8" t="s">
-        <v>670</v>
-      </c>
-      <c r="R48" s="5" t="s">
-        <v>231</v>
+      <c r="O48" s="47" t="s">
+        <v>853</v>
+      </c>
+      <c r="P48" s="48"/>
+      <c r="Q48" s="49" t="s">
+        <v>878</v>
+      </c>
+      <c r="R48" s="49" t="s">
+        <v>903</v>
       </c>
       <c r="S48" s="8" t="s">
-        <v>893</v>
+        <v>818</v>
       </c>
       <c r="T48" s="5" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="U48" s="5" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8796,28 +8628,28 @@
         <v>46</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="8" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
       <c r="K49" s="8" t="s">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="L49" s="20"/>
       <c r="M49" s="15"/>
       <c r="N49" s="15"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="15"/>
+      <c r="O49" s="50"/>
+      <c r="P49" s="51"/>
+      <c r="Q49" s="52"/>
+      <c r="R49" s="52"/>
       <c r="S49" s="15"/>
       <c r="T49" s="15"/>
       <c r="U49" s="15"/>
@@ -8827,42 +8659,42 @@
         <v>47</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="8" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
       <c r="K50" s="8" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>763</v>
+        <v>712</v>
       </c>
       <c r="M50" s="15"/>
       <c r="N50" s="15"/>
-      <c r="O50" s="32" t="s">
-        <v>858</v>
-      </c>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="8" t="s">
-        <v>671</v>
-      </c>
-      <c r="R50" s="5" t="s">
-        <v>236</v>
+      <c r="O50" s="47" t="s">
+        <v>854</v>
+      </c>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="49" t="s">
+        <v>879</v>
+      </c>
+      <c r="R50" s="49" t="s">
+        <v>904</v>
       </c>
       <c r="S50" s="15"/>
       <c r="T50" s="5" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="U50" s="5" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8884,16 +8716,16 @@
       <c r="L51" s="20"/>
       <c r="M51" s="15"/>
       <c r="N51" s="15"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="35"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="30"/>
       <c r="Q51" s="20"/>
       <c r="R51" s="15"/>
       <c r="S51" s="15"/>
       <c r="T51" s="5" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="U51" s="5" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8901,7 +8733,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
@@ -8915,13 +8747,13 @@
       <c r="L52" s="20"/>
       <c r="M52" s="15"/>
       <c r="N52" s="15"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="35"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="30"/>
       <c r="Q52" s="20"/>
       <c r="R52" s="15"/>
       <c r="S52" s="15"/>
       <c r="T52" s="5" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="U52" s="15"/>
     </row>
@@ -8933,47 +8765,47 @@
         <v>5</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="5" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="8" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>581</v>
+        <v>556</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="J53" s="15"/>
       <c r="K53" s="8" t="s">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>764</v>
+        <v>713</v>
       </c>
       <c r="M53" s="15"/>
       <c r="N53" s="15"/>
-      <c r="O53" s="32" t="s">
-        <v>859</v>
-      </c>
-      <c r="P53" s="33"/>
+      <c r="O53" s="27" t="s">
+        <v>784</v>
+      </c>
+      <c r="P53" s="28"/>
       <c r="Q53" s="8" t="s">
-        <v>672</v>
+        <v>641</v>
       </c>
       <c r="R53" s="5" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="S53" s="15"/>
       <c r="T53" s="5" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="U53" s="5" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8981,11 +8813,11 @@
         <v>51</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="8" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
@@ -8997,15 +8829,15 @@
       <c r="L54" s="20"/>
       <c r="M54" s="15"/>
       <c r="N54" s="15"/>
-      <c r="O54" s="34"/>
-      <c r="P54" s="35"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="30"/>
       <c r="Q54" s="8" t="s">
-        <v>673</v>
+        <v>642</v>
       </c>
       <c r="R54" s="15"/>
       <c r="S54" s="15"/>
       <c r="T54" s="5" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="U54" s="15"/>
     </row>
@@ -9014,54 +8846,54 @@
         <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="8" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="I55" s="15"/>
       <c r="J55" s="5" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>647</v>
+        <v>622</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>765</v>
+        <v>714</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>809</v>
+        <v>758</v>
       </c>
       <c r="N55" s="15"/>
-      <c r="O55" s="32" t="s">
-        <v>860</v>
-      </c>
-      <c r="P55" s="33"/>
+      <c r="O55" s="27" t="s">
+        <v>785</v>
+      </c>
+      <c r="P55" s="28"/>
       <c r="Q55" s="8" t="s">
-        <v>674</v>
+        <v>643</v>
       </c>
       <c r="R55" s="5" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="S55" s="15"/>
       <c r="T55" s="5" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="U55" s="5" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9069,48 +8901,48 @@
         <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
       <c r="G56" s="8" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="I56" s="15"/>
       <c r="J56" s="5" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="L56" s="20"/>
       <c r="M56" s="15"/>
       <c r="N56" s="15"/>
-      <c r="O56" s="32" t="s">
-        <v>861</v>
-      </c>
-      <c r="P56" s="33"/>
+      <c r="O56" s="27" t="s">
+        <v>786</v>
+      </c>
+      <c r="P56" s="28"/>
       <c r="Q56" s="8" t="s">
-        <v>675</v>
+        <v>644</v>
       </c>
       <c r="R56" s="5" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="S56" s="15"/>
       <c r="T56" s="5" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="U56" s="5" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9118,54 +8950,54 @@
         <v>54</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="E57" s="15"/>
       <c r="F57" s="8" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="I57" s="15"/>
       <c r="J57" s="5" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>766</v>
+        <v>715</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>810</v>
+        <v>759</v>
       </c>
       <c r="N57" s="15"/>
-      <c r="O57" s="32" t="s">
-        <v>862</v>
-      </c>
-      <c r="P57" s="33"/>
+      <c r="O57" s="27" t="s">
+        <v>787</v>
+      </c>
+      <c r="P57" s="28"/>
       <c r="Q57" s="8" t="s">
-        <v>676</v>
+        <v>645</v>
       </c>
       <c r="R57" s="5" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="S57" s="15"/>
       <c r="T57" s="5" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="U57" s="5" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9173,7 +9005,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
@@ -9187,11 +9019,11 @@
       <c r="L58" s="20"/>
       <c r="M58" s="15"/>
       <c r="N58" s="15"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="35"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="30"/>
       <c r="Q58" s="20"/>
       <c r="R58" s="25" t="s">
-        <v>900</v>
+        <v>825</v>
       </c>
       <c r="S58" s="15"/>
       <c r="T58" s="15"/>
@@ -9202,54 +9034,54 @@
         <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="E59" s="15"/>
       <c r="F59" s="8" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="I59" s="15"/>
       <c r="J59" s="5" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>767</v>
+        <v>716</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>811</v>
+        <v>760</v>
       </c>
       <c r="N59" s="15"/>
-      <c r="O59" s="32" t="s">
-        <v>863</v>
-      </c>
-      <c r="P59" s="33"/>
+      <c r="O59" s="27" t="s">
+        <v>788</v>
+      </c>
+      <c r="P59" s="28"/>
       <c r="Q59" s="8" t="s">
-        <v>677</v>
+        <v>646</v>
       </c>
       <c r="R59" s="5" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="S59" s="15"/>
       <c r="T59" s="5" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="U59" s="5" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9257,7 +9089,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
@@ -9268,21 +9100,21 @@
       <c r="I60" s="15"/>
       <c r="J60" s="15"/>
       <c r="K60" s="8" t="s">
-        <v>651</v>
+        <v>626</v>
       </c>
       <c r="L60" s="20"/>
       <c r="M60" s="15"/>
       <c r="N60" s="15"/>
-      <c r="O60" s="34"/>
-      <c r="P60" s="35"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="30"/>
       <c r="Q60" s="20"/>
       <c r="R60" s="15"/>
       <c r="S60" s="15"/>
       <c r="T60" s="5" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="U60" s="5" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9290,60 +9122,60 @@
         <v>58</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>652</v>
+        <v>627</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>768</v>
+        <v>717</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>812</v>
+        <v>761</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="O61" s="32" t="s">
-        <v>864</v>
-      </c>
-      <c r="P61" s="33"/>
+        <v>253</v>
+      </c>
+      <c r="O61" s="27" t="s">
+        <v>789</v>
+      </c>
+      <c r="P61" s="28"/>
       <c r="Q61" s="8" t="s">
-        <v>678</v>
+        <v>647</v>
       </c>
       <c r="R61" s="5" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="S61" s="15"/>
       <c r="T61" s="5" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="U61" s="5" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9351,12 +9183,12 @@
         <v>59</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
       <c r="E62" s="5" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
@@ -9367,8 +9199,8 @@
       <c r="L62" s="20"/>
       <c r="M62" s="15"/>
       <c r="N62" s="15"/>
-      <c r="O62" s="34"/>
-      <c r="P62" s="35"/>
+      <c r="O62" s="29"/>
+      <c r="P62" s="30"/>
       <c r="Q62" s="20"/>
       <c r="R62" s="15"/>
       <c r="S62" s="15"/>
@@ -9380,7 +9212,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
@@ -9394,13 +9226,13 @@
       <c r="L63" s="20"/>
       <c r="M63" s="15"/>
       <c r="N63" s="15"/>
-      <c r="O63" s="34"/>
-      <c r="P63" s="35"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="30"/>
       <c r="Q63" s="20"/>
       <c r="R63" s="15"/>
       <c r="S63" s="15"/>
       <c r="T63" s="5" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="U63" s="15"/>
     </row>
@@ -9409,56 +9241,56 @@
         <v>61</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="E64" s="15"/>
       <c r="F64" s="8" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
       <c r="I64" s="15"/>
       <c r="J64" s="5" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>653</v>
+        <v>628</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>769</v>
+        <v>718</v>
       </c>
       <c r="M64" s="8" t="s">
-        <v>813</v>
+        <v>762</v>
       </c>
       <c r="N64" s="15"/>
-      <c r="O64" s="32" t="s">
-        <v>865</v>
-      </c>
-      <c r="P64" s="33"/>
+      <c r="O64" s="27" t="s">
+        <v>790</v>
+      </c>
+      <c r="P64" s="28"/>
       <c r="Q64" s="8" t="s">
-        <v>679</v>
+        <v>648</v>
       </c>
       <c r="R64" s="5" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="S64" s="22" t="s">
-        <v>894</v>
+        <v>819</v>
       </c>
       <c r="T64" s="5" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="U64" s="5" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
     </row>
     <row r="65" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9466,60 +9298,60 @@
         <v>62</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>654</v>
+        <v>629</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>770</v>
+        <v>719</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>814</v>
+        <v>763</v>
       </c>
       <c r="N65" s="15"/>
-      <c r="O65" s="32" t="s">
-        <v>866</v>
-      </c>
-      <c r="P65" s="33"/>
+      <c r="O65" s="27" t="s">
+        <v>791</v>
+      </c>
+      <c r="P65" s="28"/>
       <c r="Q65" s="8" t="s">
-        <v>680</v>
+        <v>649</v>
       </c>
       <c r="R65" s="5" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="S65" s="22" t="s">
-        <v>895</v>
+        <v>820</v>
       </c>
       <c r="T65" s="5" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="U65" s="5" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
     </row>
     <row r="66" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9527,52 +9359,52 @@
         <v>63</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="E66" s="15"/>
       <c r="F66" s="8" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="G66" s="15"/>
       <c r="H66" s="8" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="I66" s="15"/>
       <c r="J66" s="5" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>655</v>
+        <v>630</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>771</v>
+        <v>720</v>
       </c>
       <c r="M66" s="15"/>
       <c r="N66" s="15"/>
-      <c r="O66" s="32" t="s">
-        <v>867</v>
-      </c>
-      <c r="P66" s="33"/>
+      <c r="O66" s="27" t="s">
+        <v>792</v>
+      </c>
+      <c r="P66" s="28"/>
       <c r="Q66" s="8" t="s">
-        <v>681</v>
+        <v>650</v>
       </c>
       <c r="R66" s="5" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="S66" s="22" t="s">
-        <v>896</v>
+        <v>821</v>
       </c>
       <c r="T66" s="5" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="U66" s="5" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9580,12 +9412,12 @@
         <v>64</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="5" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
@@ -9593,25 +9425,25 @@
       <c r="I67" s="15"/>
       <c r="J67" s="15"/>
       <c r="K67" s="8" t="s">
-        <v>656</v>
+        <v>631</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>772</v>
+        <v>721</v>
       </c>
       <c r="M67" s="15"/>
       <c r="N67" s="15"/>
-      <c r="O67" s="32" t="s">
-        <v>868</v>
-      </c>
-      <c r="P67" s="33"/>
+      <c r="O67" s="27" t="s">
+        <v>793</v>
+      </c>
+      <c r="P67" s="28"/>
       <c r="Q67" s="20"/>
       <c r="R67" s="15"/>
       <c r="S67" s="23"/>
       <c r="T67" s="5" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="U67" s="5" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9619,7 +9451,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
@@ -9630,25 +9462,25 @@
       <c r="I68" s="16"/>
       <c r="J68" s="16"/>
       <c r="K68" s="8" t="s">
-        <v>657</v>
+        <v>632</v>
       </c>
       <c r="L68" s="21"/>
       <c r="M68" s="16"/>
       <c r="N68" s="16"/>
-      <c r="O68" s="32" t="s">
-        <v>869</v>
-      </c>
-      <c r="P68" s="33"/>
+      <c r="O68" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="P68" s="28"/>
       <c r="Q68" s="21"/>
       <c r="R68" s="5" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="S68" s="24"/>
       <c r="T68" s="7" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="U68" s="5" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9656,56 +9488,56 @@
         <v>66</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="E69" s="15"/>
       <c r="F69" s="8" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>590</v>
+        <v>565</v>
       </c>
       <c r="I69" s="15"/>
       <c r="J69" s="5" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>658</v>
+        <v>633</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>773</v>
+        <v>722</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>815</v>
+        <v>764</v>
       </c>
       <c r="N69" s="15"/>
-      <c r="O69" s="32" t="s">
-        <v>870</v>
-      </c>
-      <c r="P69" s="33"/>
+      <c r="O69" s="27" t="s">
+        <v>795</v>
+      </c>
+      <c r="P69" s="28"/>
       <c r="Q69" s="8" t="s">
-        <v>682</v>
+        <v>651</v>
       </c>
       <c r="R69" s="5" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="S69" s="22" t="s">
-        <v>897</v>
+        <v>822</v>
       </c>
       <c r="T69" s="5" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="U69" s="5" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9713,48 +9545,48 @@
         <v>67</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
       <c r="G70" s="8" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>591</v>
+        <v>566</v>
       </c>
       <c r="I70" s="15"/>
       <c r="J70" s="15"/>
       <c r="K70" s="8" t="s">
-        <v>659</v>
+        <v>634</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>774</v>
+        <v>723</v>
       </c>
       <c r="M70" s="15"/>
       <c r="N70" s="15"/>
-      <c r="O70" s="32" t="s">
-        <v>871</v>
-      </c>
-      <c r="P70" s="33"/>
+      <c r="O70" s="27" t="s">
+        <v>796</v>
+      </c>
+      <c r="P70" s="28"/>
       <c r="Q70" s="8" t="s">
-        <v>683</v>
+        <v>652</v>
       </c>
       <c r="R70" s="5" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="S70" s="23"/>
       <c r="T70" s="5" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="U70" s="5" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9762,52 +9594,52 @@
         <v>68</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="E71" s="15"/>
       <c r="F71" s="8" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>592</v>
+        <v>567</v>
       </c>
       <c r="I71" s="15"/>
       <c r="J71" s="5" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>660</v>
+        <v>635</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>775</v>
+        <v>724</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>816</v>
+        <v>765</v>
       </c>
       <c r="N71" s="15"/>
-      <c r="O71" s="32" t="s">
-        <v>872</v>
-      </c>
-      <c r="P71" s="33"/>
+      <c r="O71" s="27" t="s">
+        <v>797</v>
+      </c>
+      <c r="P71" s="28"/>
       <c r="Q71" s="20"/>
       <c r="R71" s="5" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="S71" s="23"/>
       <c r="T71" s="5" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="U71" s="5" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9815,56 +9647,56 @@
         <v>69</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="E72" s="15"/>
       <c r="F72" s="8" t="s">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="I72" s="15"/>
       <c r="J72" s="5" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>661</v>
+        <v>636</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>776</v>
+        <v>725</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>817</v>
+        <v>766</v>
       </c>
       <c r="N72" s="15"/>
-      <c r="O72" s="32" t="s">
-        <v>873</v>
-      </c>
-      <c r="P72" s="33"/>
+      <c r="O72" s="27" t="s">
+        <v>798</v>
+      </c>
+      <c r="P72" s="28"/>
       <c r="Q72" s="8" t="s">
-        <v>684</v>
+        <v>653</v>
       </c>
       <c r="R72" s="5" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="S72" s="22" t="s">
-        <v>898</v>
+        <v>823</v>
       </c>
       <c r="T72" s="5" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="U72" s="5" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9872,46 +9704,46 @@
         <v>70</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="E73" s="15"/>
       <c r="F73" s="8" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="G73" s="15"/>
       <c r="H73" s="15"/>
       <c r="I73" s="15"/>
       <c r="J73" s="15"/>
       <c r="K73" s="8" t="s">
-        <v>662</v>
+        <v>637</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>777</v>
+        <v>726</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>818</v>
+        <v>767</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="O73" s="34"/>
-      <c r="P73" s="35"/>
+        <v>306</v>
+      </c>
+      <c r="O73" s="29"/>
+      <c r="P73" s="30"/>
       <c r="Q73" s="20"/>
       <c r="R73" s="5" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="S73" s="23"/>
       <c r="T73" s="5" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="U73" s="5" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9919,19 +9751,19 @@
         <v>71</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
       <c r="G74" s="8" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="I74" s="15"/>
       <c r="J74" s="15"/>
@@ -9939,20 +9771,20 @@
       <c r="L74" s="20"/>
       <c r="M74" s="15"/>
       <c r="N74" s="15"/>
-      <c r="O74" s="32" t="s">
-        <v>874</v>
-      </c>
-      <c r="P74" s="33"/>
+      <c r="O74" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="P74" s="28"/>
       <c r="Q74" s="8" t="s">
-        <v>685</v>
+        <v>654</v>
       </c>
       <c r="R74" s="5" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="S74" s="23"/>
       <c r="T74" s="15"/>
       <c r="U74" s="5" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
     </row>
     <row r="75" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9960,56 +9792,56 @@
         <v>72</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="I75" s="15"/>
       <c r="J75" s="5" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>778</v>
+        <v>727</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>819</v>
+        <v>768</v>
       </c>
       <c r="N75" s="15"/>
-      <c r="O75" s="32" t="s">
-        <v>875</v>
-      </c>
-      <c r="P75" s="33"/>
+      <c r="O75" s="27" t="s">
+        <v>800</v>
+      </c>
+      <c r="P75" s="28"/>
       <c r="Q75" s="8" t="s">
-        <v>686</v>
+        <v>655</v>
       </c>
       <c r="R75" s="5" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="S75" s="23"/>
       <c r="T75" s="5" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="U75" s="5" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10017,56 +9849,56 @@
         <v>73</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="E76" s="15"/>
       <c r="F76" s="8" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>595</v>
+        <v>570</v>
       </c>
       <c r="I76" s="15"/>
       <c r="J76" s="5" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>664</v>
+        <v>639</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>779</v>
+        <v>728</v>
       </c>
       <c r="M76" s="8" t="s">
-        <v>820</v>
+        <v>769</v>
       </c>
       <c r="N76" s="15"/>
-      <c r="O76" s="32" t="s">
-        <v>876</v>
-      </c>
-      <c r="P76" s="33"/>
+      <c r="O76" s="27" t="s">
+        <v>801</v>
+      </c>
+      <c r="P76" s="28"/>
       <c r="Q76" s="8" t="s">
-        <v>687</v>
+        <v>656</v>
       </c>
       <c r="R76" s="5" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="S76" s="22" t="s">
-        <v>899</v>
+        <v>824</v>
       </c>
       <c r="T76" s="5" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="U76" s="5" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10074,52 +9906,52 @@
         <v>74</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="E77" s="15"/>
       <c r="F77" s="8" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>596</v>
+        <v>571</v>
       </c>
       <c r="I77" s="15"/>
       <c r="J77" s="5" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>665</v>
+        <v>640</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>780</v>
+        <v>729</v>
       </c>
       <c r="M77" s="15"/>
       <c r="N77" s="15"/>
-      <c r="O77" s="32" t="s">
-        <v>877</v>
-      </c>
-      <c r="P77" s="33"/>
+      <c r="O77" s="27" t="s">
+        <v>802</v>
+      </c>
+      <c r="P77" s="28"/>
       <c r="Q77" s="8" t="s">
-        <v>688</v>
+        <v>657</v>
       </c>
       <c r="R77" s="5" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="S77" s="15"/>
       <c r="T77" s="5" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="U77" s="5" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10127,7 +9959,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
@@ -10141,45 +9973,108 @@
       <c r="L78" s="15"/>
       <c r="M78" s="15"/>
       <c r="N78" s="15"/>
-      <c r="O78" s="34"/>
-      <c r="P78" s="35"/>
+      <c r="O78" s="29"/>
+      <c r="P78" s="30"/>
       <c r="Q78" s="20"/>
       <c r="R78" s="15"/>
       <c r="S78" s="15"/>
       <c r="T78" s="5" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="U78" s="15"/>
     </row>
     <row r="79" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="B79" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="C79" s="37"/>
-      <c r="D79" s="37"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="37"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="37"/>
-      <c r="K79" s="37"/>
-      <c r="L79" s="37"/>
-      <c r="M79" s="37"/>
-      <c r="N79" s="37"/>
-      <c r="O79" s="37"/>
-      <c r="P79" s="37"/>
-      <c r="Q79" s="37"/>
-      <c r="R79" s="37"/>
-      <c r="S79" s="37"/>
-      <c r="T79" s="37"/>
-      <c r="U79" s="38"/>
+        <v>332</v>
+      </c>
+      <c r="B79" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="32"/>
+      <c r="K79" s="32"/>
+      <c r="L79" s="32"/>
+      <c r="M79" s="32"/>
+      <c r="N79" s="32"/>
+      <c r="O79" s="32"/>
+      <c r="P79" s="32"/>
+      <c r="Q79" s="32"/>
+      <c r="R79" s="32"/>
+      <c r="S79" s="32"/>
+      <c r="T79" s="32"/>
+      <c r="U79" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="O60:P60"/>
     <mergeCell ref="O76:P76"/>
     <mergeCell ref="O77:P77"/>
     <mergeCell ref="O78:P78"/>
@@ -10196,69 +10091,6 @@
     <mergeCell ref="O69:P69"/>
     <mergeCell ref="O70:P70"/>
     <mergeCell ref="O61:P61"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/臺灣閩南語TaiwaneseCVVC拼音方案音節表.xlsx
+++ b/臺灣閩南語TaiwaneseCVVC拼音方案音節表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\UTAU-Taiwanese-Voicebank-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA73F600-6199-4A94-ADF1-D0B50733DCC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9550E2E-E174-4A1C-8562-911F4E4A8DD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Table 1'!$A$1:$U$79</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Table 1'!$A$1:$T$79</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="905">
   <si>
     <r>
       <rPr>
@@ -5669,7 +5669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5754,13 +5754,40 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5774,60 +5801,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6175,10 +6148,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44:R50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O82" sqref="O82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6191,42 +6164,40 @@
     <col min="12" max="12" width="12.6640625" customWidth="1"/>
     <col min="13" max="14" width="14" customWidth="1"/>
     <col min="15" max="15" width="11.5" customWidth="1"/>
-    <col min="16" max="16" width="1.1640625" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="15.1640625" customWidth="1"/>
-    <col min="20" max="20" width="13.33203125" style="17" customWidth="1"/>
-    <col min="21" max="21" width="10.5" customWidth="1"/>
-    <col min="22" max="22" width="3.33203125" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="18" max="18" width="15.1640625" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" style="17" customWidth="1"/>
+    <col min="20" max="20" width="10.5" customWidth="1"/>
+    <col min="21" max="21" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
         <v>826</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="13"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="13"/>
     </row>
-    <row r="2" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6269,27 +6240,26 @@
       <c r="N2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="30" t="s">
         <v>828</v>
       </c>
-      <c r="P2" s="38"/>
+      <c r="P2" s="2" t="s">
+        <v>829</v>
+      </c>
       <c r="Q2" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>830</v>
+        <v>572</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>572</v>
+        <v>7</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -6332,25 +6302,24 @@
       <c r="N3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="35" t="s">
+      <c r="O3" s="29" t="s">
         <v>770</v>
       </c>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="Q3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="T3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -6385,25 +6354,24 @@
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
-      <c r="O4" s="35" t="s">
+      <c r="O4" s="29" t="s">
         <v>771</v>
       </c>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="Q4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="T4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="U4" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -6446,25 +6414,24 @@
       <c r="N5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="35" t="s">
+      <c r="O5" s="29" t="s">
         <v>772</v>
       </c>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="9" t="s">
+      <c r="P5" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="Q5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="T5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="U5" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -6493,23 +6460,22 @@
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
-      <c r="O6" s="35" t="s">
+      <c r="O6" s="29" t="s">
         <v>773</v>
       </c>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="9" t="s">
+      <c r="P6" s="9" t="s">
         <v>661</v>
       </c>
+      <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
+      <c r="S6" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="T6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="U6" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -6546,25 +6512,24 @@
         <v>733</v>
       </c>
       <c r="N7" s="11"/>
-      <c r="O7" s="35" t="s">
+      <c r="O7" s="29" t="s">
         <v>774</v>
       </c>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="9" t="s">
+      <c r="P7" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="Q7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="T7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -6595,25 +6560,24 @@
         <v>734</v>
       </c>
       <c r="N8" s="11"/>
-      <c r="O8" s="35" t="s">
+      <c r="O8" s="29" t="s">
         <v>775</v>
       </c>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="9" t="s">
+      <c r="P8" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="R8" s="10" t="s">
+      <c r="Q8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="S8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="T8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="U8" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -6650,25 +6614,24 @@
         <v>735</v>
       </c>
       <c r="N9" s="11"/>
-      <c r="O9" s="35" t="s">
+      <c r="O9" s="29" t="s">
         <v>776</v>
       </c>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="9" t="s">
+      <c r="P9" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="Q9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="S9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="T9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="U9" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -6705,25 +6668,24 @@
         <v>736</v>
       </c>
       <c r="N10" s="11"/>
-      <c r="O10" s="35" t="s">
+      <c r="O10" s="29" t="s">
         <v>777</v>
       </c>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="9" t="s">
+      <c r="P10" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="R10" s="10" t="s">
+      <c r="Q10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="S10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="T10" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="U10" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -6752,23 +6714,22 @@
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="9" t="s">
+      <c r="O11" s="31"/>
+      <c r="P11" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="R11" s="10" t="s">
+      <c r="Q11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="S11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="T11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="U11" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -6787,19 +6748,18 @@
       <c r="L12" s="18"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="10" t="s">
+      <c r="O12" s="31"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="S12" s="11"/>
-      <c r="T12" s="10" t="s">
+      <c r="R12" s="11"/>
+      <c r="S12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="U12" s="11"/>
+      <c r="T12" s="11"/>
     </row>
-    <row r="13" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -6830,25 +6790,24 @@
         <v>737</v>
       </c>
       <c r="N13" s="11"/>
-      <c r="O13" s="35" t="s">
+      <c r="O13" s="29" t="s">
         <v>778</v>
       </c>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="9" t="s">
+      <c r="P13" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="R13" s="10" t="s">
+      <c r="Q13" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="S13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="T13" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="U13" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -6881,25 +6840,24 @@
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
-      <c r="O14" s="35" t="s">
+      <c r="O14" s="29" t="s">
         <v>779</v>
       </c>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="9" t="s">
+      <c r="P14" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="R14" s="10" t="s">
+      <c r="Q14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="S14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="T14" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="U14" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -6942,25 +6900,24 @@
       <c r="N15" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="O15" s="35" t="s">
+      <c r="O15" s="29" t="s">
         <v>780</v>
       </c>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="9" t="s">
+      <c r="P15" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="Q15" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="S15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="T15" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="U15" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -6997,15 +6954,14 @@
       <c r="N16" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="18"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
     </row>
-    <row r="17" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -7048,25 +7004,24 @@
       <c r="N17" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="O17" s="35" t="s">
+      <c r="O17" s="29" t="s">
         <v>781</v>
       </c>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="9" t="s">
+      <c r="P17" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="R17" s="10" t="s">
+      <c r="Q17" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="S17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="T17" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="U17" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -7105,25 +7060,24 @@
       <c r="N18" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="O18" s="35" t="s">
+      <c r="O18" s="29" t="s">
         <v>782</v>
       </c>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="9" t="s">
+      <c r="P18" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="R18" s="10" t="s">
+      <c r="Q18" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="S18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="T18" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="U18" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -7152,25 +7106,24 @@
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
-      <c r="O19" s="35" t="s">
+      <c r="O19" s="29" t="s">
         <v>783</v>
       </c>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="9" t="s">
+      <c r="P19" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="R19" s="10" t="s">
+      <c r="Q19" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="S19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="T19" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="U19" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -7191,15 +7144,14 @@
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="18"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
     </row>
-    <row r="21" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -7242,27 +7194,26 @@
       <c r="N21" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="O21" s="41" t="s">
+      <c r="O21" s="32" t="s">
         <v>831</v>
       </c>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="43" t="s">
+      <c r="P21" s="33" t="s">
         <v>855</v>
       </c>
-      <c r="R21" s="43" t="s">
+      <c r="Q21" s="33" t="s">
         <v>880</v>
       </c>
-      <c r="S21" s="9" t="s">
+      <c r="R21" s="9" t="s">
         <v>803</v>
       </c>
+      <c r="S21" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="T21" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="U21" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -7295,27 +7246,26 @@
       <c r="N22" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="O22" s="41" t="s">
+      <c r="O22" s="32" t="s">
         <v>832</v>
       </c>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="43" t="s">
+      <c r="P22" s="33" t="s">
         <v>856</v>
       </c>
-      <c r="R22" s="43" t="s">
+      <c r="Q22" s="33" t="s">
         <v>881</v>
       </c>
-      <c r="S22" s="9" t="s">
+      <c r="R22" s="9" t="s">
         <v>804</v>
       </c>
+      <c r="S22" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="T22" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="U22" s="10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -7350,27 +7300,26 @@
         <v>742</v>
       </c>
       <c r="N23" s="11"/>
-      <c r="O23" s="41" t="s">
+      <c r="O23" s="32" t="s">
         <v>833</v>
       </c>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="43" t="s">
+      <c r="P23" s="33" t="s">
         <v>857</v>
       </c>
-      <c r="R23" s="43" t="s">
+      <c r="Q23" s="33" t="s">
         <v>882</v>
       </c>
-      <c r="S23" s="9" t="s">
+      <c r="R23" s="9" t="s">
         <v>805</v>
       </c>
+      <c r="S23" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="T23" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="U23" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>22</v>
       </c>
@@ -7399,19 +7348,18 @@
       </c>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="43" t="s">
+      <c r="O24" s="34"/>
+      <c r="P24" s="33" t="s">
         <v>858</v>
       </c>
-      <c r="R24" s="43" t="s">
+      <c r="Q24" s="33" t="s">
         <v>883</v>
       </c>
+      <c r="R24" s="11"/>
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
     </row>
-    <row r="25" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -7442,27 +7390,26 @@
         <v>743</v>
       </c>
       <c r="N25" s="11"/>
-      <c r="O25" s="41" t="s">
+      <c r="O25" s="32" t="s">
         <v>834</v>
       </c>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="43" t="s">
+      <c r="P25" s="33" t="s">
         <v>859</v>
       </c>
-      <c r="R25" s="43" t="s">
+      <c r="Q25" s="33" t="s">
         <v>884</v>
       </c>
-      <c r="S25" s="9" t="s">
+      <c r="R25" s="9" t="s">
         <v>806</v>
       </c>
+      <c r="S25" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="T25" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="U25" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -7499,27 +7446,26 @@
         <v>744</v>
       </c>
       <c r="N26" s="11"/>
-      <c r="O26" s="41" t="s">
+      <c r="O26" s="32" t="s">
         <v>835</v>
       </c>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="43" t="s">
+      <c r="P26" s="33" t="s">
         <v>860</v>
       </c>
-      <c r="R26" s="43" t="s">
+      <c r="Q26" s="33" t="s">
         <v>885</v>
       </c>
-      <c r="S26" s="9" t="s">
+      <c r="R26" s="9" t="s">
         <v>807</v>
       </c>
+      <c r="S26" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="T26" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="U26" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -7548,27 +7494,26 @@
         <v>745</v>
       </c>
       <c r="N27" s="11"/>
-      <c r="O27" s="41" t="s">
+      <c r="O27" s="32" t="s">
         <v>836</v>
       </c>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="43" t="s">
+      <c r="P27" s="33" t="s">
         <v>861</v>
       </c>
-      <c r="R27" s="43" t="s">
+      <c r="Q27" s="33" t="s">
         <v>886</v>
       </c>
-      <c r="S27" s="9" t="s">
+      <c r="R27" s="9" t="s">
         <v>808</v>
       </c>
+      <c r="S27" s="10" t="s">
+        <v>133</v>
+      </c>
       <c r="T27" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="U27" s="10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>26</v>
       </c>
@@ -7597,25 +7542,24 @@
       <c r="L28" s="18"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
-      <c r="O28" s="41" t="s">
+      <c r="O28" s="32" t="s">
         <v>837</v>
       </c>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="43" t="s">
+      <c r="P28" s="33" t="s">
         <v>862</v>
       </c>
-      <c r="R28" s="43" t="s">
+      <c r="Q28" s="33" t="s">
         <v>887</v>
       </c>
-      <c r="S28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="T28" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="U28" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>27</v>
       </c>
@@ -7646,25 +7590,24 @@
         <v>746</v>
       </c>
       <c r="N29" s="11"/>
-      <c r="O29" s="41" t="s">
+      <c r="O29" s="32" t="s">
         <v>838</v>
       </c>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="43" t="s">
+      <c r="P29" s="33" t="s">
         <v>863</v>
       </c>
-      <c r="R29" s="43" t="s">
+      <c r="Q29" s="33" t="s">
         <v>888</v>
       </c>
-      <c r="S29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="T29" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="U29" s="10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>28</v>
       </c>
@@ -7701,27 +7644,26 @@
         <v>747</v>
       </c>
       <c r="N30" s="11"/>
-      <c r="O30" s="41" t="s">
+      <c r="O30" s="32" t="s">
         <v>839</v>
       </c>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="43" t="s">
+      <c r="P30" s="33" t="s">
         <v>864</v>
       </c>
-      <c r="R30" s="43" t="s">
+      <c r="Q30" s="33" t="s">
         <v>889</v>
       </c>
-      <c r="S30" s="9" t="s">
+      <c r="R30" s="9" t="s">
         <v>809</v>
       </c>
+      <c r="S30" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="T30" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="U30" s="10" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>29</v>
       </c>
@@ -7764,27 +7706,26 @@
       <c r="N31" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="O31" s="41" t="s">
+      <c r="O31" s="32" t="s">
         <v>840</v>
       </c>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="43" t="s">
+      <c r="P31" s="33" t="s">
         <v>865</v>
       </c>
-      <c r="R31" s="43" t="s">
+      <c r="Q31" s="33" t="s">
         <v>890</v>
       </c>
-      <c r="S31" s="9" t="s">
+      <c r="R31" s="9" t="s">
         <v>810</v>
       </c>
+      <c r="S31" s="10" t="s">
+        <v>151</v>
+      </c>
       <c r="T31" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="U31" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>30</v>
       </c>
@@ -7813,17 +7754,16 @@
       <c r="N32" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="O32" s="44"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="10" t="s">
+      <c r="O32" s="34"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="U32" s="11"/>
+      <c r="T32" s="11"/>
     </row>
-    <row r="33" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>31</v>
       </c>
@@ -7842,17 +7782,16 @@
       <c r="L33" s="18"/>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="11"/>
       <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="10" t="s">
+      <c r="T33" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>32</v>
       </c>
@@ -7889,21 +7828,20 @@
       </c>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
-      <c r="O34" s="41" t="s">
+      <c r="O34" s="32" t="s">
         <v>841</v>
       </c>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="43" t="s">
+      <c r="P34" s="33" t="s">
         <v>866</v>
       </c>
-      <c r="R34" s="43" t="s">
+      <c r="Q34" s="33" t="s">
         <v>891</v>
       </c>
+      <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
     </row>
-    <row r="35" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>33</v>
       </c>
@@ -7940,25 +7878,24 @@
         <v>750</v>
       </c>
       <c r="N35" s="11"/>
-      <c r="O35" s="41" t="s">
+      <c r="O35" s="32" t="s">
         <v>842</v>
       </c>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="43" t="s">
+      <c r="P35" s="33" t="s">
         <v>867</v>
       </c>
-      <c r="R35" s="43" t="s">
+      <c r="Q35" s="33" t="s">
         <v>892</v>
       </c>
-      <c r="S35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="T35" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="U35" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>34</v>
       </c>
@@ -7989,27 +7926,26 @@
         <v>751</v>
       </c>
       <c r="N36" s="11"/>
-      <c r="O36" s="41" t="s">
+      <c r="O36" s="32" t="s">
         <v>843</v>
       </c>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="43" t="s">
+      <c r="P36" s="33" t="s">
         <v>868</v>
       </c>
-      <c r="R36" s="43" t="s">
+      <c r="Q36" s="33" t="s">
         <v>893</v>
       </c>
-      <c r="S36" s="9" t="s">
+      <c r="R36" s="9" t="s">
         <v>811</v>
       </c>
+      <c r="S36" s="10" t="s">
+        <v>168</v>
+      </c>
       <c r="T36" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="U36" s="10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>35</v>
       </c>
@@ -8046,27 +7982,26 @@
         <v>752</v>
       </c>
       <c r="N37" s="11"/>
-      <c r="O37" s="41" t="s">
+      <c r="O37" s="32" t="s">
         <v>844</v>
       </c>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="43" t="s">
+      <c r="P37" s="33" t="s">
         <v>869</v>
       </c>
-      <c r="R37" s="43" t="s">
+      <c r="Q37" s="33" t="s">
         <v>894</v>
       </c>
-      <c r="S37" s="9" t="s">
+      <c r="R37" s="9" t="s">
         <v>812</v>
       </c>
+      <c r="S37" s="10" t="s">
+        <v>172</v>
+      </c>
       <c r="T37" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="U37" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>36</v>
       </c>
@@ -8103,25 +8038,24 @@
         <v>753</v>
       </c>
       <c r="N38" s="11"/>
-      <c r="O38" s="41" t="s">
+      <c r="O38" s="32" t="s">
         <v>845</v>
       </c>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="43" t="s">
+      <c r="P38" s="33" t="s">
         <v>870</v>
       </c>
-      <c r="R38" s="43" t="s">
+      <c r="Q38" s="33" t="s">
         <v>895</v>
       </c>
-      <c r="S38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="10" t="s">
+        <v>176</v>
+      </c>
       <c r="T38" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="U38" s="10" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>37</v>
       </c>
@@ -8152,25 +8086,24 @@
       </c>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
-      <c r="O39" s="41" t="s">
+      <c r="O39" s="32" t="s">
         <v>846</v>
       </c>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="43" t="s">
+      <c r="P39" s="33" t="s">
         <v>871</v>
       </c>
-      <c r="R39" s="43" t="s">
+      <c r="Q39" s="33" t="s">
         <v>896</v>
       </c>
-      <c r="S39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="T39" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="U39" s="10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>38</v>
       </c>
@@ -8191,15 +8124,14 @@
       <c r="L40" s="18"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="46"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="11"/>
       <c r="S40" s="11"/>
       <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
     </row>
-    <row r="41" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>39</v>
       </c>
@@ -8236,27 +8168,26 @@
         <v>754</v>
       </c>
       <c r="N41" s="11"/>
-      <c r="O41" s="41" t="s">
+      <c r="O41" s="32" t="s">
         <v>847</v>
       </c>
-      <c r="P41" s="42"/>
-      <c r="Q41" s="43" t="s">
+      <c r="P41" s="33" t="s">
         <v>872</v>
       </c>
-      <c r="R41" s="43" t="s">
+      <c r="Q41" s="33" t="s">
         <v>897</v>
       </c>
-      <c r="S41" s="9" t="s">
+      <c r="R41" s="9" t="s">
         <v>813</v>
       </c>
+      <c r="S41" s="10" t="s">
+        <v>184</v>
+      </c>
       <c r="T41" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="U41" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>40</v>
       </c>
@@ -8283,25 +8214,24 @@
       </c>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
-      <c r="O42" s="41" t="s">
+      <c r="O42" s="32" t="s">
         <v>848</v>
       </c>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="43" t="s">
+      <c r="P42" s="33" t="s">
         <v>873</v>
       </c>
-      <c r="R42" s="43" t="s">
+      <c r="Q42" s="33" t="s">
         <v>898</v>
       </c>
-      <c r="S42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="10" t="s">
+        <v>188</v>
+      </c>
       <c r="T42" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="U42" s="10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -8344,27 +8274,26 @@
       <c r="N43" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="O43" s="37" t="s">
+      <c r="O43" s="30" t="s">
         <v>578</v>
       </c>
-      <c r="P43" s="38"/>
+      <c r="P43" s="2" t="s">
+        <v>579</v>
+      </c>
       <c r="Q43" s="2" t="s">
-        <v>579</v>
+        <v>6</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>6</v>
+        <v>572</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>572</v>
+        <v>7</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U43" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>41</v>
       </c>
@@ -8395,27 +8324,26 @@
         <v>755</v>
       </c>
       <c r="N44" s="15"/>
-      <c r="O44" s="47" t="s">
+      <c r="O44" s="36" t="s">
         <v>849</v>
       </c>
-      <c r="P44" s="48"/>
-      <c r="Q44" s="49" t="s">
+      <c r="P44" s="37" t="s">
         <v>874</v>
       </c>
-      <c r="R44" s="49" t="s">
+      <c r="Q44" s="37" t="s">
         <v>899</v>
       </c>
-      <c r="S44" s="8" t="s">
+      <c r="R44" s="8" t="s">
         <v>814</v>
       </c>
+      <c r="S44" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="T44" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="U44" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>42</v>
       </c>
@@ -8446,27 +8374,26 @@
         <v>756</v>
       </c>
       <c r="N45" s="15"/>
-      <c r="O45" s="47" t="s">
+      <c r="O45" s="36" t="s">
         <v>850</v>
       </c>
-      <c r="P45" s="48"/>
-      <c r="Q45" s="49" t="s">
+      <c r="P45" s="37" t="s">
         <v>875</v>
       </c>
-      <c r="R45" s="49" t="s">
+      <c r="Q45" s="37" t="s">
         <v>900</v>
       </c>
-      <c r="S45" s="8" t="s">
+      <c r="R45" s="8" t="s">
         <v>815</v>
       </c>
+      <c r="S45" s="5" t="s">
+        <v>196</v>
+      </c>
       <c r="T45" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="U45" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>43</v>
       </c>
@@ -8491,27 +8418,26 @@
       </c>
       <c r="M46" s="15"/>
       <c r="N46" s="15"/>
-      <c r="O46" s="47" t="s">
+      <c r="O46" s="36" t="s">
         <v>851</v>
       </c>
-      <c r="P46" s="48"/>
-      <c r="Q46" s="49" t="s">
+      <c r="P46" s="37" t="s">
         <v>876</v>
       </c>
-      <c r="R46" s="49" t="s">
+      <c r="Q46" s="37" t="s">
         <v>901</v>
       </c>
-      <c r="S46" s="8" t="s">
+      <c r="R46" s="8" t="s">
         <v>816</v>
       </c>
+      <c r="S46" s="5" t="s">
+        <v>200</v>
+      </c>
       <c r="T46" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="U46" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>44</v>
       </c>
@@ -8544,27 +8470,26 @@
       </c>
       <c r="M47" s="15"/>
       <c r="N47" s="15"/>
-      <c r="O47" s="47" t="s">
+      <c r="O47" s="36" t="s">
         <v>852</v>
       </c>
-      <c r="P47" s="48"/>
-      <c r="Q47" s="49" t="s">
+      <c r="P47" s="37" t="s">
         <v>877</v>
       </c>
-      <c r="R47" s="49" t="s">
+      <c r="Q47" s="37" t="s">
         <v>902</v>
       </c>
-      <c r="S47" s="8" t="s">
+      <c r="R47" s="8" t="s">
         <v>817</v>
       </c>
+      <c r="S47" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="T47" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="U47" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>45</v>
       </c>
@@ -8603,27 +8528,26 @@
         <v>757</v>
       </c>
       <c r="N48" s="15"/>
-      <c r="O48" s="47" t="s">
+      <c r="O48" s="36" t="s">
         <v>853</v>
       </c>
-      <c r="P48" s="48"/>
-      <c r="Q48" s="49" t="s">
+      <c r="P48" s="37" t="s">
         <v>878</v>
       </c>
-      <c r="R48" s="49" t="s">
+      <c r="Q48" s="37" t="s">
         <v>903</v>
       </c>
-      <c r="S48" s="8" t="s">
+      <c r="R48" s="8" t="s">
         <v>818</v>
       </c>
+      <c r="S48" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="T48" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="U48" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>46</v>
       </c>
@@ -8646,15 +8570,14 @@
       <c r="L49" s="20"/>
       <c r="M49" s="15"/>
       <c r="N49" s="15"/>
-      <c r="O49" s="50"/>
-      <c r="P49" s="51"/>
-      <c r="Q49" s="52"/>
-      <c r="R49" s="52"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="15"/>
       <c r="S49" s="15"/>
       <c r="T49" s="15"/>
-      <c r="U49" s="15"/>
     </row>
-    <row r="50" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>47</v>
       </c>
@@ -8679,25 +8602,24 @@
       </c>
       <c r="M50" s="15"/>
       <c r="N50" s="15"/>
-      <c r="O50" s="47" t="s">
+      <c r="O50" s="36" t="s">
         <v>854</v>
       </c>
-      <c r="P50" s="48"/>
-      <c r="Q50" s="49" t="s">
+      <c r="P50" s="37" t="s">
         <v>879</v>
       </c>
-      <c r="R50" s="49" t="s">
+      <c r="Q50" s="37" t="s">
         <v>904</v>
       </c>
-      <c r="S50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="T50" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="U50" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>48</v>
       </c>
@@ -8716,19 +8638,18 @@
       <c r="L51" s="20"/>
       <c r="M51" s="15"/>
       <c r="N51" s="15"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="20"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="15"/>
       <c r="R51" s="15"/>
-      <c r="S51" s="15"/>
+      <c r="S51" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="T51" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="U51" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>49</v>
       </c>
@@ -8747,17 +8668,16 @@
       <c r="L52" s="20"/>
       <c r="M52" s="15"/>
       <c r="N52" s="15"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="20"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="15"/>
       <c r="R52" s="15"/>
-      <c r="S52" s="15"/>
-      <c r="T52" s="5" t="s">
+      <c r="S52" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="U52" s="15"/>
+      <c r="T52" s="15"/>
     </row>
-    <row r="53" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>50</v>
       </c>
@@ -8793,22 +8713,21 @@
       <c r="O53" s="27" t="s">
         <v>784</v>
       </c>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="8" t="s">
+      <c r="P53" s="8" t="s">
         <v>641</v>
       </c>
-      <c r="R53" s="5" t="s">
+      <c r="Q53" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="S53" s="15"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="5" t="s">
+        <v>221</v>
+      </c>
       <c r="T53" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="U53" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>51</v>
       </c>
@@ -8829,19 +8748,18 @@
       <c r="L54" s="20"/>
       <c r="M54" s="15"/>
       <c r="N54" s="15"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="8" t="s">
+      <c r="O54" s="28"/>
+      <c r="P54" s="8" t="s">
         <v>642</v>
       </c>
+      <c r="Q54" s="15"/>
       <c r="R54" s="15"/>
-      <c r="S54" s="15"/>
-      <c r="T54" s="5" t="s">
+      <c r="S54" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="U54" s="15"/>
+      <c r="T54" s="15"/>
     </row>
-    <row r="55" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>52</v>
       </c>
@@ -8881,22 +8799,21 @@
       <c r="O55" s="27" t="s">
         <v>785</v>
       </c>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="8" t="s">
+      <c r="P55" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="R55" s="5" t="s">
+      <c r="Q55" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="S55" s="15"/>
+      <c r="R55" s="15"/>
+      <c r="S55" s="5" t="s">
+        <v>228</v>
+      </c>
       <c r="T55" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="U55" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>53</v>
       </c>
@@ -8930,22 +8847,21 @@
       <c r="O56" s="27" t="s">
         <v>786</v>
       </c>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="8" t="s">
+      <c r="P56" s="8" t="s">
         <v>644</v>
       </c>
-      <c r="R56" s="5" t="s">
+      <c r="Q56" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="S56" s="15"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="T56" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="U56" s="5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>54</v>
       </c>
@@ -8985,22 +8901,21 @@
       <c r="O57" s="27" t="s">
         <v>787</v>
       </c>
-      <c r="P57" s="28"/>
-      <c r="Q57" s="8" t="s">
+      <c r="P57" s="8" t="s">
         <v>645</v>
       </c>
-      <c r="R57" s="5" t="s">
+      <c r="Q57" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="S57" s="15"/>
+      <c r="R57" s="15"/>
+      <c r="S57" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="T57" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="U57" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>55</v>
       </c>
@@ -9019,17 +8934,16 @@
       <c r="L58" s="20"/>
       <c r="M58" s="15"/>
       <c r="N58" s="15"/>
-      <c r="O58" s="29"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="25" t="s">
+      <c r="O58" s="28"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="25" t="s">
         <v>825</v>
       </c>
+      <c r="R58" s="15"/>
       <c r="S58" s="15"/>
       <c r="T58" s="15"/>
-      <c r="U58" s="15"/>
     </row>
-    <row r="59" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>56</v>
       </c>
@@ -9069,22 +8983,21 @@
       <c r="O59" s="27" t="s">
         <v>788</v>
       </c>
-      <c r="P59" s="28"/>
-      <c r="Q59" s="8" t="s">
+      <c r="P59" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="R59" s="5" t="s">
+      <c r="Q59" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="S59" s="15"/>
+      <c r="R59" s="15"/>
+      <c r="S59" s="5" t="s">
+        <v>244</v>
+      </c>
       <c r="T59" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="U59" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>57</v>
       </c>
@@ -9105,19 +9018,18 @@
       <c r="L60" s="20"/>
       <c r="M60" s="15"/>
       <c r="N60" s="15"/>
-      <c r="O60" s="29"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="20"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="15"/>
       <c r="R60" s="15"/>
-      <c r="S60" s="15"/>
+      <c r="S60" s="5" t="s">
+        <v>247</v>
+      </c>
       <c r="T60" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="U60" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>58</v>
       </c>
@@ -9163,22 +9075,21 @@
       <c r="O61" s="27" t="s">
         <v>789</v>
       </c>
-      <c r="P61" s="28"/>
-      <c r="Q61" s="8" t="s">
+      <c r="P61" s="8" t="s">
         <v>647</v>
       </c>
-      <c r="R61" s="5" t="s">
+      <c r="Q61" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="S61" s="15"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="5" t="s">
+        <v>255</v>
+      </c>
       <c r="T61" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="U61" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>59</v>
       </c>
@@ -9199,15 +9110,14 @@
       <c r="L62" s="20"/>
       <c r="M62" s="15"/>
       <c r="N62" s="15"/>
-      <c r="O62" s="29"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="20"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="15"/>
       <c r="R62" s="15"/>
       <c r="S62" s="15"/>
       <c r="T62" s="15"/>
-      <c r="U62" s="15"/>
     </row>
-    <row r="63" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>60</v>
       </c>
@@ -9226,17 +9136,16 @@
       <c r="L63" s="20"/>
       <c r="M63" s="15"/>
       <c r="N63" s="15"/>
-      <c r="O63" s="29"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="20"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="15"/>
       <c r="R63" s="15"/>
-      <c r="S63" s="15"/>
-      <c r="T63" s="5" t="s">
+      <c r="S63" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="U63" s="15"/>
+      <c r="T63" s="15"/>
     </row>
-    <row r="64" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>61</v>
       </c>
@@ -9276,24 +9185,23 @@
       <c r="O64" s="27" t="s">
         <v>790</v>
       </c>
-      <c r="P64" s="28"/>
-      <c r="Q64" s="8" t="s">
+      <c r="P64" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="R64" s="5" t="s">
+      <c r="Q64" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="S64" s="22" t="s">
+      <c r="R64" s="22" t="s">
         <v>819</v>
       </c>
+      <c r="S64" s="5" t="s">
+        <v>264</v>
+      </c>
       <c r="T64" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="U64" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>62</v>
       </c>
@@ -9337,24 +9245,23 @@
       <c r="O65" s="27" t="s">
         <v>791</v>
       </c>
-      <c r="P65" s="28"/>
-      <c r="Q65" s="8" t="s">
+      <c r="P65" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="R65" s="5" t="s">
+      <c r="Q65" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="S65" s="22" t="s">
+      <c r="R65" s="22" t="s">
         <v>820</v>
       </c>
+      <c r="S65" s="5" t="s">
+        <v>271</v>
+      </c>
       <c r="T65" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="U65" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>63</v>
       </c>
@@ -9390,24 +9297,23 @@
       <c r="O66" s="27" t="s">
         <v>792</v>
       </c>
-      <c r="P66" s="28"/>
-      <c r="Q66" s="8" t="s">
+      <c r="P66" s="8" t="s">
         <v>650</v>
       </c>
-      <c r="R66" s="5" t="s">
+      <c r="Q66" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="S66" s="22" t="s">
+      <c r="R66" s="22" t="s">
         <v>821</v>
       </c>
+      <c r="S66" s="5" t="s">
+        <v>276</v>
+      </c>
       <c r="T66" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="U66" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>64</v>
       </c>
@@ -9435,18 +9341,17 @@
       <c r="O67" s="27" t="s">
         <v>793</v>
       </c>
-      <c r="P67" s="28"/>
-      <c r="Q67" s="20"/>
-      <c r="R67" s="15"/>
-      <c r="S67" s="23"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="23"/>
+      <c r="S67" s="5" t="s">
+        <v>280</v>
+      </c>
       <c r="T67" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="U67" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>65</v>
       </c>
@@ -9470,20 +9375,19 @@
       <c r="O68" s="27" t="s">
         <v>794</v>
       </c>
-      <c r="P68" s="28"/>
-      <c r="Q68" s="21"/>
-      <c r="R68" s="5" t="s">
+      <c r="P68" s="21"/>
+      <c r="Q68" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="S68" s="24"/>
-      <c r="T68" s="7" t="s">
+      <c r="R68" s="24"/>
+      <c r="S68" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="U68" s="5" t="s">
+      <c r="T68" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>66</v>
       </c>
@@ -9523,24 +9427,23 @@
       <c r="O69" s="27" t="s">
         <v>795</v>
       </c>
-      <c r="P69" s="28"/>
-      <c r="Q69" s="8" t="s">
+      <c r="P69" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="R69" s="5" t="s">
+      <c r="Q69" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="S69" s="22" t="s">
+      <c r="R69" s="22" t="s">
         <v>822</v>
       </c>
+      <c r="S69" s="5" t="s">
+        <v>289</v>
+      </c>
       <c r="T69" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="U69" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>67</v>
       </c>
@@ -9574,22 +9477,21 @@
       <c r="O70" s="27" t="s">
         <v>796</v>
       </c>
-      <c r="P70" s="28"/>
-      <c r="Q70" s="8" t="s">
+      <c r="P70" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="R70" s="5" t="s">
+      <c r="Q70" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="S70" s="23"/>
+      <c r="R70" s="23"/>
+      <c r="S70" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="T70" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="U70" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>68</v>
       </c>
@@ -9629,20 +9531,19 @@
       <c r="O71" s="27" t="s">
         <v>797</v>
       </c>
-      <c r="P71" s="28"/>
-      <c r="Q71" s="20"/>
-      <c r="R71" s="5" t="s">
+      <c r="P71" s="20"/>
+      <c r="Q71" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="S71" s="23"/>
+      <c r="R71" s="23"/>
+      <c r="S71" s="5" t="s">
+        <v>298</v>
+      </c>
       <c r="T71" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="U71" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>69</v>
       </c>
@@ -9682,24 +9583,23 @@
       <c r="O72" s="27" t="s">
         <v>798</v>
       </c>
-      <c r="P72" s="28"/>
-      <c r="Q72" s="8" t="s">
+      <c r="P72" s="8" t="s">
         <v>653</v>
       </c>
-      <c r="R72" s="5" t="s">
+      <c r="Q72" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="S72" s="22" t="s">
+      <c r="R72" s="22" t="s">
         <v>823</v>
       </c>
+      <c r="S72" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="T72" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="U72" s="5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>70</v>
       </c>
@@ -9732,21 +9632,20 @@
       <c r="N73" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="O73" s="29"/>
-      <c r="P73" s="30"/>
-      <c r="Q73" s="20"/>
-      <c r="R73" s="5" t="s">
+      <c r="O73" s="28"/>
+      <c r="P73" s="20"/>
+      <c r="Q73" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="S73" s="23"/>
+      <c r="R73" s="23"/>
+      <c r="S73" s="5" t="s">
+        <v>308</v>
+      </c>
       <c r="T73" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="U73" s="5" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>71</v>
       </c>
@@ -9774,20 +9673,19 @@
       <c r="O74" s="27" t="s">
         <v>799</v>
       </c>
-      <c r="P74" s="28"/>
-      <c r="Q74" s="8" t="s">
+      <c r="P74" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="R74" s="5" t="s">
+      <c r="Q74" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="S74" s="23"/>
-      <c r="T74" s="15"/>
-      <c r="U74" s="5" t="s">
+      <c r="R74" s="23"/>
+      <c r="S74" s="15"/>
+      <c r="T74" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>72</v>
       </c>
@@ -9829,22 +9727,21 @@
       <c r="O75" s="27" t="s">
         <v>800</v>
       </c>
-      <c r="P75" s="28"/>
-      <c r="Q75" s="8" t="s">
+      <c r="P75" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="R75" s="5" t="s">
+      <c r="Q75" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="S75" s="23"/>
+      <c r="R75" s="23"/>
+      <c r="S75" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="T75" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="U75" s="5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>73</v>
       </c>
@@ -9884,24 +9781,23 @@
       <c r="O76" s="27" t="s">
         <v>801</v>
       </c>
-      <c r="P76" s="28"/>
-      <c r="Q76" s="8" t="s">
+      <c r="P76" s="8" t="s">
         <v>656</v>
       </c>
-      <c r="R76" s="5" t="s">
+      <c r="Q76" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="S76" s="22" t="s">
+      <c r="R76" s="22" t="s">
         <v>824</v>
       </c>
+      <c r="S76" s="5" t="s">
+        <v>323</v>
+      </c>
       <c r="T76" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="U76" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>74</v>
       </c>
@@ -9939,22 +9835,21 @@
       <c r="O77" s="27" t="s">
         <v>802</v>
       </c>
-      <c r="P77" s="28"/>
-      <c r="Q77" s="8" t="s">
+      <c r="P77" s="8" t="s">
         <v>657</v>
       </c>
-      <c r="R77" s="5" t="s">
+      <c r="Q77" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="S77" s="15"/>
+      <c r="R77" s="15"/>
+      <c r="S77" s="5" t="s">
+        <v>328</v>
+      </c>
       <c r="T77" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="U77" s="5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>75</v>
       </c>
@@ -9973,124 +9868,45 @@
       <c r="L78" s="15"/>
       <c r="M78" s="15"/>
       <c r="N78" s="15"/>
-      <c r="O78" s="29"/>
-      <c r="P78" s="30"/>
-      <c r="Q78" s="20"/>
+      <c r="O78" s="28"/>
+      <c r="P78" s="20"/>
+      <c r="Q78" s="15"/>
       <c r="R78" s="15"/>
-      <c r="S78" s="15"/>
-      <c r="T78" s="5" t="s">
+      <c r="S78" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="U78" s="15"/>
+      <c r="T78" s="15"/>
     </row>
-    <row r="79" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="40" t="s">
         <v>333</v>
       </c>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
-      <c r="J79" s="32"/>
-      <c r="K79" s="32"/>
-      <c r="L79" s="32"/>
-      <c r="M79" s="32"/>
-      <c r="N79" s="32"/>
-      <c r="O79" s="32"/>
-      <c r="P79" s="32"/>
-      <c r="Q79" s="32"/>
-      <c r="R79" s="32"/>
-      <c r="S79" s="32"/>
-      <c r="T79" s="32"/>
-      <c r="U79" s="33"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="41"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="41"/>
+      <c r="K79" s="41"/>
+      <c r="L79" s="41"/>
+      <c r="M79" s="41"/>
+      <c r="N79" s="41"/>
+      <c r="O79" s="41"/>
+      <c r="P79" s="41"/>
+      <c r="Q79" s="41"/>
+      <c r="R79" s="41"/>
+      <c r="S79" s="41"/>
+      <c r="T79" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="O76:P76"/>
-    <mergeCell ref="O77:P77"/>
-    <mergeCell ref="O78:P78"/>
-    <mergeCell ref="B79:U79"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="O74:P74"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="O68:P68"/>
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="O70:P70"/>
-    <mergeCell ref="O61:P61"/>
+  <mergeCells count="2">
+    <mergeCell ref="B79:T79"/>
+    <mergeCell ref="A1:T1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/臺灣閩南語TaiwaneseCVVC拼音方案音節表.xlsx
+++ b/臺灣閩南語TaiwaneseCVVC拼音方案音節表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\UTAU-Taiwanese-Voicebank-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9550E2E-E174-4A1C-8562-911F4E4A8DD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9F74C2-8988-4EE1-A57B-AD384D1B6700}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3564,10 +3564,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>pha 拍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>pai 派</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5447,6 +5443,10 @@
   </si>
   <si>
     <t>xiunn 賞</t>
+  </si>
+  <si>
+    <t>pah 拍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6151,7 +6151,7 @@
   <dimension ref="A1:U79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O82" sqref="O82"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6174,7 +6174,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -6202,25 +6202,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>334</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>2</v>
@@ -6229,28 +6229,28 @@
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="O2" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>830</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>7</v>
@@ -6279,10 +6279,10 @@
         <v>381</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>11</v>
@@ -6291,22 +6291,22 @@
         <v>12</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L3" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>730</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>731</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="O3" s="29" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Q3" s="10" t="s">
         <v>14</v>
@@ -6330,35 +6330,35 @@
         <v>336</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>385</v>
+        <v>904</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="9" t="s">
         <v>382</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="29" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Q4" s="10" t="s">
         <v>19</v>
@@ -6382,7 +6382,7 @@
         <v>337</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>23</v>
@@ -6391,10 +6391,10 @@
         <v>383</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>24</v>
@@ -6403,22 +6403,22 @@
         <v>25</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="29" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="Q5" s="10" t="s">
         <v>27</v>
@@ -6442,29 +6442,29 @@
         <v>338</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
@@ -6486,37 +6486,37 @@
         <v>339</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10" t="s">
         <v>34</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="N7" s="11"/>
       <c r="O7" s="29" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Q7" s="10" t="s">
         <v>35</v>
@@ -6541,30 +6541,30 @@
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="10" t="s">
         <v>39</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="N8" s="11"/>
       <c r="O8" s="29" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>40</v>
@@ -6588,37 +6588,37 @@
         <v>340</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="10" t="s">
         <v>44</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="N9" s="11"/>
       <c r="O9" s="29" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="Q9" s="10" t="s">
         <v>45</v>
@@ -6642,37 +6642,37 @@
         <v>341</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="10" t="s">
         <v>49</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="29" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="Q10" s="10" t="s">
         <v>50</v>
@@ -6694,29 +6694,29 @@
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="31"/>
       <c r="P11" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Q11" s="10" t="s">
         <v>54</v>
@@ -6771,30 +6771,30 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="10" t="s">
         <v>61</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="N13" s="11"/>
       <c r="O13" s="29" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="Q13" s="10" t="s">
         <v>62</v>
@@ -6820,31 +6820,31 @@
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="10" t="s">
         <v>66</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="29" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>67</v>
@@ -6868,19 +6868,19 @@
         <v>343</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>71</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>72</v>
@@ -6889,22 +6889,22 @@
         <v>73</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>74</v>
       </c>
       <c r="O15" s="29" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="Q15" s="10" t="s">
         <v>75</v>
@@ -6928,16 +6928,16 @@
         <v>344</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>79</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="10" t="s">
@@ -6947,7 +6947,7 @@
         <v>81</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="11"/>
@@ -6972,19 +6972,19 @@
         <v>345</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>84</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>85</v>
@@ -6993,22 +6993,22 @@
         <v>86</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="N17" s="10" t="s">
         <v>87</v>
       </c>
       <c r="O17" s="29" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="Q17" s="10" t="s">
         <v>88</v>
@@ -7036,13 +7036,13 @@
         <v>92</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>93</v>
@@ -7051,20 +7051,20 @@
         <v>94</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="10" t="s">
         <v>95</v>
       </c>
       <c r="O18" s="29" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>96</v>
@@ -7086,31 +7086,31 @@
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="29" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>100</v>
@@ -7140,7 +7140,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -7162,19 +7162,19 @@
         <v>347</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>105</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>106</v>
@@ -7183,28 +7183,28 @@
         <v>107</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>108</v>
       </c>
       <c r="O21" s="32" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="S21" s="10" t="s">
         <v>109</v>
@@ -7227,7 +7227,7 @@
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="10" t="s">
@@ -7235,28 +7235,28 @@
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="N22" s="12" t="s">
         <v>114</v>
       </c>
       <c r="O22" s="32" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="P22" s="33" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="Q22" s="33" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="S22" s="10" t="s">
         <v>115</v>
@@ -7276,12 +7276,12 @@
         <v>348</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H23" s="10" t="s">
         <v>118</v>
@@ -7291,26 +7291,26 @@
         <v>119</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N23" s="11"/>
       <c r="O23" s="32" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="P23" s="33" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="Q23" s="33" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="S23" s="10" t="s">
         <v>120</v>
@@ -7330,30 +7330,30 @@
         <v>349</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="34"/>
       <c r="P24" s="33" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="Q24" s="33" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
@@ -7371,36 +7371,36 @@
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="10" t="s">
         <v>124</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="N25" s="11"/>
       <c r="O25" s="32" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="S25" s="10" t="s">
         <v>125</v>
@@ -7420,43 +7420,43 @@
         <v>350</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="10" t="s">
         <v>128</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="N26" s="11"/>
       <c r="O26" s="32" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="P26" s="33" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="Q26" s="33" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="S26" s="10" t="s">
         <v>129</v>
@@ -7476,7 +7476,7 @@
         <v>351</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -7488,23 +7488,23 @@
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="N27" s="11"/>
       <c r="O27" s="32" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="P27" s="33" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="Q27" s="33" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="S27" s="10" t="s">
         <v>133</v>
@@ -7524,32 +7524,32 @@
         <v>352</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L28" s="18"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
       <c r="O28" s="32" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="P28" s="33" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="Q28" s="33" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="R28" s="11"/>
       <c r="S28" s="10" t="s">
@@ -7571,33 +7571,33 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="10" t="s">
         <v>139</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="N29" s="11"/>
       <c r="O29" s="32" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="P29" s="33" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="Q29" s="33" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="R29" s="11"/>
       <c r="S29" s="10" t="s">
@@ -7618,43 +7618,43 @@
         <v>353</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="10" t="s">
         <v>143</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="N30" s="11"/>
       <c r="O30" s="32" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P30" s="33" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Q30" s="33" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="S30" s="10" t="s">
         <v>144</v>
@@ -7674,19 +7674,19 @@
         <v>354</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>147</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>148</v>
@@ -7695,28 +7695,28 @@
         <v>149</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="N31" s="10" t="s">
         <v>150</v>
       </c>
       <c r="O31" s="32" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="P31" s="33" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q31" s="33" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="S31" s="10" t="s">
         <v>151</v>
@@ -7743,13 +7743,13 @@
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="N32" s="10" t="s">
         <v>155</v>
@@ -7802,19 +7802,19 @@
         <v>355</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>159</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>160</v>
@@ -7824,18 +7824,18 @@
       </c>
       <c r="K34" s="11"/>
       <c r="L34" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
       <c r="O34" s="32" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="P34" s="33" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="Q34" s="33" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
@@ -7852,40 +7852,40 @@
         <v>356</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="10" t="s">
         <v>163</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N35" s="11"/>
       <c r="O35" s="32" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="P35" s="33" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q35" s="33" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="R35" s="11"/>
       <c r="S35" s="10" t="s">
@@ -7907,36 +7907,36 @@
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="10" t="s">
         <v>167</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="N36" s="11"/>
       <c r="O36" s="32" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="P36" s="33" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="Q36" s="33" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="R36" s="9" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="S36" s="10" t="s">
         <v>168</v>
@@ -7956,43 +7956,43 @@
         <v>357</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="10" t="s">
         <v>171</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="N37" s="11"/>
       <c r="O37" s="32" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="P37" s="33" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="Q37" s="33" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="S37" s="10" t="s">
         <v>172</v>
@@ -8012,40 +8012,40 @@
         <v>358</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="10" t="s">
         <v>175</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="N38" s="11"/>
       <c r="O38" s="32" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="P38" s="33" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="Q38" s="33" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="R38" s="11"/>
       <c r="S38" s="10" t="s">
@@ -8066,34 +8066,34 @@
         <v>359</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
       <c r="O39" s="32" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="P39" s="33" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="Q39" s="33" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="R39" s="11"/>
       <c r="S39" s="10" t="s">
@@ -8115,7 +8115,7 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
@@ -8142,43 +8142,43 @@
         <v>360</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="10" t="s">
         <v>183</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="N41" s="11"/>
       <c r="O41" s="32" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="P41" s="33" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="Q41" s="33" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="R41" s="9" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="S41" s="10" t="s">
         <v>184</v>
@@ -8199,7 +8199,7 @@
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
@@ -8207,21 +8207,21 @@
         <v>187</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
       <c r="O42" s="32" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="P42" s="33" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q42" s="33" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="R42" s="11"/>
       <c r="S42" s="10" t="s">
@@ -8236,25 +8236,25 @@
         <v>0</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F43" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>2</v>
@@ -8263,28 +8263,28 @@
         <v>3</v>
       </c>
       <c r="K43" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="L43" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="M43" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="M43" s="2" t="s">
+      <c r="N43" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="N43" s="2" t="s">
+      <c r="O43" s="30" t="s">
         <v>577</v>
       </c>
-      <c r="O43" s="30" t="s">
+      <c r="P43" s="2" t="s">
         <v>578</v>
-      </c>
-      <c r="P43" s="2" t="s">
-        <v>579</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="S43" s="2" t="s">
         <v>7</v>
@@ -8305,36 +8305,36 @@
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I44" s="15"/>
       <c r="J44" s="5" t="s">
         <v>191</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="N44" s="15"/>
       <c r="O44" s="36" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="P44" s="37" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="Q44" s="37" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="R44" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="S44" s="5" t="s">
         <v>192</v>
@@ -8355,36 +8355,36 @@
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I45" s="15"/>
       <c r="J45" s="5" t="s">
         <v>195</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L45" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N45" s="15"/>
       <c r="O45" s="36" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="P45" s="37" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="Q45" s="37" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="R45" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="S45" s="5" t="s">
         <v>196</v>
@@ -8411,24 +8411,24 @@
         <v>199</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="M46" s="15"/>
       <c r="N46" s="15"/>
       <c r="O46" s="36" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="P46" s="37" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="Q46" s="37" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="R46" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="S46" s="5" t="s">
         <v>200</v>
@@ -8448,39 +8448,39 @@
         <v>361</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
       <c r="K47" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="M47" s="15"/>
       <c r="N47" s="15"/>
       <c r="O47" s="36" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="P47" s="37" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="Q47" s="37" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="S47" s="5" t="s">
         <v>203</v>
@@ -8500,17 +8500,17 @@
         <v>362</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>206</v>
@@ -8519,26 +8519,26 @@
         <v>207</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="N48" s="15"/>
       <c r="O48" s="36" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="P48" s="37" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="Q48" s="37" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="S48" s="5" t="s">
         <v>208</v>
@@ -8559,13 +8559,13 @@
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
       <c r="K49" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L49" s="20"/>
       <c r="M49" s="15"/>
@@ -8589,27 +8589,27 @@
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
       <c r="K50" s="8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="M50" s="15"/>
       <c r="N50" s="15"/>
       <c r="O50" s="36" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="P50" s="37" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="Q50" s="37" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R50" s="15"/>
       <c r="S50" s="5" t="s">
@@ -8693,28 +8693,28 @@
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>219</v>
       </c>
       <c r="J53" s="15"/>
       <c r="K53" s="8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M53" s="15"/>
       <c r="N53" s="15"/>
       <c r="O53" s="27" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="P53" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="Q53" s="5" t="s">
         <v>220</v>
@@ -8736,7 +8736,7 @@
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
@@ -8750,7 +8750,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="28"/>
       <c r="P54" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q54" s="15"/>
       <c r="R54" s="15"/>
@@ -8770,37 +8770,37 @@
         <v>364</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I55" s="15"/>
       <c r="J55" s="5" t="s">
         <v>226</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="N55" s="15"/>
       <c r="O55" s="27" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="P55" s="8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="Q55" s="5" t="s">
         <v>227</v>
@@ -8824,31 +8824,31 @@
         <v>365</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
       <c r="G56" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I56" s="15"/>
       <c r="J56" s="5" t="s">
         <v>231</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L56" s="20"/>
       <c r="M56" s="15"/>
       <c r="N56" s="15"/>
       <c r="O56" s="27" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="P56" s="8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="Q56" s="5" t="s">
         <v>232</v>
@@ -8872,37 +8872,37 @@
         <v>366</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E57" s="15"/>
       <c r="F57" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I57" s="15"/>
       <c r="J57" s="5" t="s">
         <v>236</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="N57" s="15"/>
       <c r="O57" s="27" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="P57" s="8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Q57" s="5" t="s">
         <v>237</v>
@@ -8937,7 +8937,7 @@
       <c r="O58" s="28"/>
       <c r="P58" s="20"/>
       <c r="Q58" s="25" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="R58" s="15"/>
       <c r="S58" s="15"/>
@@ -8954,37 +8954,37 @@
         <v>367</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E59" s="15"/>
       <c r="F59" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I59" s="15"/>
       <c r="J59" s="5" t="s">
         <v>242</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="N59" s="15"/>
       <c r="O59" s="27" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P59" s="8" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="Q59" s="5" t="s">
         <v>243</v>
@@ -9013,7 +9013,7 @@
       <c r="I60" s="15"/>
       <c r="J60" s="15"/>
       <c r="K60" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L60" s="20"/>
       <c r="M60" s="15"/>
@@ -9040,19 +9040,19 @@
         <v>368</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>250</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>251</v>
@@ -9061,22 +9061,22 @@
         <v>252</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="N61" s="5" t="s">
         <v>253</v>
       </c>
       <c r="O61" s="27" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="P61" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="Q61" s="5" t="s">
         <v>254</v>
@@ -9156,43 +9156,43 @@
         <v>369</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E64" s="15"/>
       <c r="F64" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I64" s="15"/>
       <c r="J64" s="5" t="s">
         <v>262</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="M64" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="N64" s="15"/>
       <c r="O64" s="27" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="P64" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Q64" s="5" t="s">
         <v>263</v>
       </c>
       <c r="R64" s="22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="S64" s="5" t="s">
         <v>264</v>
@@ -9212,19 +9212,19 @@
         <v>370</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>267</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>268</v>
@@ -9233,26 +9233,26 @@
         <v>269</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="N65" s="15"/>
       <c r="O65" s="27" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="P65" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="Q65" s="5" t="s">
         <v>270</v>
       </c>
       <c r="R65" s="22" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="S65" s="5" t="s">
         <v>271</v>
@@ -9272,39 +9272,39 @@
         <v>371</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E66" s="15"/>
       <c r="F66" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G66" s="15"/>
       <c r="H66" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I66" s="15"/>
       <c r="J66" s="5" t="s">
         <v>274</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="M66" s="15"/>
       <c r="N66" s="15"/>
       <c r="O66" s="27" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="P66" s="8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="Q66" s="5" t="s">
         <v>275</v>
       </c>
       <c r="R66" s="22" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="S66" s="5" t="s">
         <v>276</v>
@@ -9331,15 +9331,15 @@
       <c r="I67" s="15"/>
       <c r="J67" s="15"/>
       <c r="K67" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M67" s="15"/>
       <c r="N67" s="15"/>
       <c r="O67" s="27" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="P67" s="20"/>
       <c r="Q67" s="15"/>
@@ -9367,13 +9367,13 @@
       <c r="I68" s="16"/>
       <c r="J68" s="16"/>
       <c r="K68" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L68" s="21"/>
       <c r="M68" s="16"/>
       <c r="N68" s="16"/>
       <c r="O68" s="27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="P68" s="21"/>
       <c r="Q68" s="5" t="s">
@@ -9398,43 +9398,43 @@
         <v>372</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E69" s="15"/>
       <c r="F69" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I69" s="15"/>
       <c r="J69" s="5" t="s">
         <v>287</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="N69" s="15"/>
       <c r="O69" s="27" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="P69" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="Q69" s="5" t="s">
         <v>288</v>
       </c>
       <c r="R69" s="22" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="S69" s="5" t="s">
         <v>289</v>
@@ -9454,31 +9454,31 @@
         <v>373</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
       <c r="G70" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I70" s="15"/>
       <c r="J70" s="15"/>
       <c r="K70" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M70" s="15"/>
       <c r="N70" s="15"/>
       <c r="O70" s="27" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="P70" s="8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="Q70" s="5" t="s">
         <v>292</v>
@@ -9502,34 +9502,34 @@
         <v>374</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E71" s="15"/>
       <c r="F71" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I71" s="15"/>
       <c r="J71" s="5" t="s">
         <v>296</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="N71" s="15"/>
       <c r="O71" s="27" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="P71" s="20"/>
       <c r="Q71" s="5" t="s">
@@ -9554,43 +9554,43 @@
         <v>375</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E72" s="15"/>
       <c r="F72" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I72" s="15"/>
       <c r="J72" s="5" t="s">
         <v>301</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="N72" s="15"/>
       <c r="O72" s="27" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="P72" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="Q72" s="5" t="s">
         <v>302</v>
       </c>
       <c r="R72" s="22" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="S72" s="5" t="s">
         <v>303</v>
@@ -9610,24 +9610,24 @@
         <v>376</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E73" s="15"/>
       <c r="F73" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G73" s="15"/>
       <c r="H73" s="15"/>
       <c r="I73" s="15"/>
       <c r="J73" s="15"/>
       <c r="K73" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="N73" s="5" t="s">
         <v>306</v>
@@ -9659,7 +9659,7 @@
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
       <c r="G74" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>311</v>
@@ -9671,10 +9671,10 @@
       <c r="M74" s="15"/>
       <c r="N74" s="15"/>
       <c r="O74" s="27" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="P74" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="Q74" s="5" t="s">
         <v>312</v>
@@ -9696,39 +9696,39 @@
         <v>378</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>315</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I75" s="15"/>
       <c r="J75" s="5" t="s">
         <v>316</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="N75" s="15"/>
       <c r="O75" s="27" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P75" s="8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Q75" s="5" t="s">
         <v>317</v>
@@ -9752,43 +9752,43 @@
         <v>379</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E76" s="15"/>
       <c r="F76" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I76" s="15"/>
       <c r="J76" s="5" t="s">
         <v>321</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="M76" s="8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="N76" s="15"/>
       <c r="O76" s="27" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="P76" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="Q76" s="5" t="s">
         <v>322</v>
       </c>
       <c r="R76" s="22" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="S76" s="5" t="s">
         <v>323</v>
@@ -9808,35 +9808,35 @@
         <v>380</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E77" s="15"/>
       <c r="F77" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I77" s="15"/>
       <c r="J77" s="5" t="s">
         <v>326</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="M77" s="15"/>
       <c r="N77" s="15"/>
       <c r="O77" s="27" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P77" s="8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Q77" s="5" t="s">
         <v>327</v>

--- a/臺灣閩南語TaiwaneseCVVC拼音方案音節表.xlsx
+++ b/臺灣閩南語TaiwaneseCVVC拼音方案音節表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\UTAU-Taiwanese-Voicebank-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9F74C2-8988-4EE1-A57B-AD384D1B6700}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081E0D98-57C3-452A-8955-ED71A115BAEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1188,18 +1188,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>thiah 拆</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333300"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>liah 掠</t>
     </r>
   </si>
@@ -5446,6 +5434,10 @@
   </si>
   <si>
     <t>pah 拍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiah 拆</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6150,8 +6142,8 @@
   </sheetPr>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q68" sqref="Q68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6174,7 +6166,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -6202,25 +6194,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>465</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>2</v>
@@ -6229,28 +6221,28 @@
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="O2" s="30" t="s">
+        <v>826</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>829</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>7</v>
@@ -6267,22 +6259,22 @@
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>11</v>
@@ -6291,22 +6283,22 @@
         <v>12</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L3" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>729</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>730</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="O3" s="29" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Q3" s="10" t="s">
         <v>14</v>
@@ -6327,38 +6319,38 @@
         <v>17</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="29" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Q4" s="10" t="s">
         <v>19</v>
@@ -6379,22 +6371,22 @@
         <v>22</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>24</v>
@@ -6403,22 +6395,22 @@
         <v>25</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="29" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Q5" s="10" t="s">
         <v>27</v>
@@ -6439,32 +6431,32 @@
         <v>30</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="29" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
@@ -6483,40 +6475,40 @@
         <v>33</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10" t="s">
         <v>34</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="N7" s="11"/>
       <c r="O7" s="29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Q7" s="10" t="s">
         <v>35</v>
@@ -6541,30 +6533,30 @@
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="10" t="s">
         <v>39</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="N8" s="11"/>
       <c r="O8" s="29" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>40</v>
@@ -6585,40 +6577,40 @@
         <v>43</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="10" t="s">
         <v>44</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="N9" s="11"/>
       <c r="O9" s="29" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="Q9" s="10" t="s">
         <v>45</v>
@@ -6639,40 +6631,40 @@
         <v>48</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="10" t="s">
         <v>49</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="29" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="Q10" s="10" t="s">
         <v>50</v>
@@ -6694,29 +6686,29 @@
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="31"/>
       <c r="P11" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="Q11" s="10" t="s">
         <v>54</v>
@@ -6771,30 +6763,30 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="10" t="s">
         <v>61</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="N13" s="11"/>
       <c r="O13" s="29" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Q13" s="10" t="s">
         <v>62</v>
@@ -6815,36 +6807,36 @@
         <v>65</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="10" t="s">
         <v>66</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="29" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>67</v>
@@ -6865,22 +6857,22 @@
         <v>70</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>71</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>72</v>
@@ -6889,22 +6881,22 @@
         <v>73</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>74</v>
       </c>
       <c r="O15" s="29" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="Q15" s="10" t="s">
         <v>75</v>
@@ -6925,19 +6917,19 @@
         <v>78</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>79</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="10" t="s">
@@ -6947,7 +6939,7 @@
         <v>81</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="11"/>
@@ -6969,22 +6961,22 @@
         <v>83</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>84</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>85</v>
@@ -6993,22 +6985,22 @@
         <v>86</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N17" s="10" t="s">
         <v>87</v>
       </c>
       <c r="O17" s="29" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="Q17" s="10" t="s">
         <v>88</v>
@@ -7029,20 +7021,20 @@
         <v>91</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="10" t="s">
         <v>92</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>93</v>
@@ -7051,20 +7043,20 @@
         <v>94</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="10" t="s">
         <v>95</v>
       </c>
       <c r="O18" s="29" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>96</v>
@@ -7086,31 +7078,31 @@
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="29" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>100</v>
@@ -7140,7 +7132,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="9" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -7159,22 +7151,22 @@
         <v>104</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>105</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>106</v>
@@ -7183,28 +7175,28 @@
         <v>107</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>108</v>
       </c>
       <c r="O21" s="32" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="S21" s="10" t="s">
         <v>109</v>
@@ -7227,7 +7219,7 @@
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="10" t="s">
@@ -7235,28 +7227,28 @@
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="N22" s="12" t="s">
         <v>114</v>
       </c>
       <c r="O22" s="32" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="P22" s="33" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="Q22" s="33" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="S22" s="10" t="s">
         <v>115</v>
@@ -7273,50 +7265,50 @@
         <v>117</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>118</v>
+        <v>483</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>904</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="N23" s="11"/>
       <c r="O23" s="32" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="P23" s="33" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="Q23" s="33" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="S23" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="T23" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="T23" s="10" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7324,36 +7316,36 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="34"/>
       <c r="P24" s="33" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="Q24" s="33" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
@@ -7364,49 +7356,49 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N25" s="11"/>
       <c r="O25" s="32" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="S25" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="T25" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="T25" s="10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7414,55 +7406,55 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="N26" s="11"/>
       <c r="O26" s="32" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="P26" s="33" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="Q26" s="33" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="S26" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="T26" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="T26" s="10" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7470,13 +7462,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -7484,33 +7476,33 @@
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="N27" s="11"/>
       <c r="O27" s="32" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="P27" s="33" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="Q27" s="33" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="S27" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="T27" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="T27" s="10" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7518,45 +7510,45 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L28" s="18"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
       <c r="O28" s="32" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="P28" s="33" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="Q28" s="33" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="R28" s="11"/>
       <c r="S28" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="T28" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="T28" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7564,47 +7556,47 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="N29" s="11"/>
       <c r="O29" s="32" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="P29" s="33" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="Q29" s="33" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="R29" s="11"/>
       <c r="S29" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="T29" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="T29" s="10" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7612,55 +7604,55 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="N30" s="11"/>
       <c r="O30" s="32" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="P30" s="33" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="Q30" s="33" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="S30" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="T30" s="10" t="s">
         <v>144</v>
-      </c>
-      <c r="T30" s="10" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7668,61 +7660,61 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="E31" s="10" t="s">
+      <c r="F31" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="I31" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="I31" s="10" t="s">
+      <c r="J31" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="K31" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="N31" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="K31" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>696</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>747</v>
-      </c>
-      <c r="N31" s="10" t="s">
+      <c r="O31" s="32" t="s">
+        <v>838</v>
+      </c>
+      <c r="P31" s="33" t="s">
+        <v>863</v>
+      </c>
+      <c r="Q31" s="33" t="s">
+        <v>888</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="S31" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="O31" s="32" t="s">
-        <v>839</v>
-      </c>
-      <c r="P31" s="33" t="s">
-        <v>864</v>
-      </c>
-      <c r="Q31" s="33" t="s">
-        <v>889</v>
-      </c>
-      <c r="R31" s="9" t="s">
-        <v>809</v>
-      </c>
-      <c r="S31" s="10" t="s">
+      <c r="T31" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="T31" s="10" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7730,7 +7722,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -7739,27 +7731,27 @@
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O32" s="34"/>
       <c r="P32" s="35"/>
       <c r="Q32" s="35"/>
       <c r="R32" s="11"/>
       <c r="S32" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T32" s="11"/>
     </row>
@@ -7768,7 +7760,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -7788,7 +7780,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7796,46 +7788,46 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="E34" s="10" t="s">
+      <c r="F34" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="I34" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>544</v>
-      </c>
-      <c r="I34" s="10" t="s">
+      <c r="J34" s="10" t="s">
         <v>160</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>161</v>
       </c>
       <c r="K34" s="11"/>
       <c r="L34" s="9" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
       <c r="O34" s="32" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="P34" s="33" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q34" s="33" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
@@ -7846,53 +7838,53 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="N35" s="11"/>
       <c r="O35" s="32" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="P35" s="33" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="Q35" s="33" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="R35" s="11"/>
       <c r="S35" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="T35" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="T35" s="10" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7900,49 +7892,49 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N36" s="11"/>
       <c r="O36" s="32" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="P36" s="33" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q36" s="33" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="R36" s="9" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="S36" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="T36" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="T36" s="10" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7950,55 +7942,55 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="N37" s="11"/>
       <c r="O37" s="32" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="P37" s="33" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="Q37" s="33" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="S37" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="T37" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="T37" s="10" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8006,53 +7998,53 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="N38" s="11"/>
       <c r="O38" s="32" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="P38" s="33" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="Q38" s="33" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="R38" s="11"/>
       <c r="S38" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="T38" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="T38" s="10" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8060,47 +8052,47 @@
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
       <c r="O39" s="32" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="P39" s="33" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="Q39" s="33" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="R39" s="11"/>
       <c r="S39" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="T39" s="10" t="s">
         <v>179</v>
-      </c>
-      <c r="T39" s="10" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8108,14 +8100,14 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
@@ -8136,55 +8128,55 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="N41" s="11"/>
       <c r="O41" s="32" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="P41" s="33" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="Q41" s="33" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="R41" s="9" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="S41" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="T41" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="T41" s="10" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8192,43 +8184,43 @@
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
       <c r="J42" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
       <c r="O42" s="32" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="P42" s="33" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="Q42" s="33" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="R42" s="11"/>
       <c r="S42" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="T42" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="T42" s="10" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -8236,25 +8228,25 @@
         <v>0</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F43" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>465</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>2</v>
@@ -8263,28 +8255,28 @@
         <v>3</v>
       </c>
       <c r="K43" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="L43" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="M43" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="M43" s="2" t="s">
+      <c r="N43" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="N43" s="2" t="s">
+      <c r="O43" s="30" t="s">
         <v>576</v>
       </c>
-      <c r="O43" s="30" t="s">
+      <c r="P43" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="P43" s="2" t="s">
-        <v>578</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="S43" s="2" t="s">
         <v>7</v>
@@ -8298,49 +8290,49 @@
         <v>41</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I44" s="15"/>
       <c r="J44" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="N44" s="15"/>
       <c r="O44" s="36" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="P44" s="37" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q44" s="37" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="R44" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="S44" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="T44" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="T44" s="5" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8348,49 +8340,49 @@
         <v>42</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I45" s="15"/>
       <c r="J45" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L45" s="19" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="N45" s="15"/>
       <c r="O45" s="36" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="P45" s="37" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="Q45" s="37" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="R45" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="S45" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="T45" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="T45" s="5" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8398,7 +8390,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
@@ -8408,33 +8400,33 @@
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
       <c r="J46" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="M46" s="15"/>
       <c r="N46" s="15"/>
       <c r="O46" s="36" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="P46" s="37" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="Q46" s="37" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="R46" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="S46" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="T46" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="T46" s="5" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8442,51 +8434,51 @@
         <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
       <c r="K47" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="M47" s="15"/>
       <c r="N47" s="15"/>
       <c r="O47" s="36" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="P47" s="37" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="Q47" s="37" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="S47" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="T47" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="T47" s="5" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8494,57 +8486,57 @@
         <v>45</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I48" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="J48" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="J48" s="5" t="s">
-        <v>207</v>
-      </c>
       <c r="K48" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N48" s="15"/>
       <c r="O48" s="36" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="P48" s="37" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="Q48" s="37" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="S48" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="T48" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="T48" s="5" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8552,20 +8544,20 @@
         <v>46</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
       <c r="K49" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="L49" s="20"/>
       <c r="M49" s="15"/>
@@ -8582,41 +8574,41 @@
         <v>47</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
       <c r="K50" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="M50" s="15"/>
       <c r="N50" s="15"/>
       <c r="O50" s="36" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="P50" s="37" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="Q50" s="37" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="R50" s="15"/>
       <c r="S50" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="T50" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="T50" s="5" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8643,10 +8635,10 @@
       <c r="Q51" s="15"/>
       <c r="R51" s="15"/>
       <c r="S51" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="T51" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="T51" s="5" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8654,7 +8646,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
@@ -8673,7 +8665,7 @@
       <c r="Q52" s="15"/>
       <c r="R52" s="15"/>
       <c r="S52" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T52" s="15"/>
     </row>
@@ -8685,46 +8677,46 @@
         <v>5</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J53" s="15"/>
       <c r="K53" s="8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="M53" s="15"/>
       <c r="N53" s="15"/>
       <c r="O53" s="27" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="P53" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="Q53" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R53" s="15"/>
       <c r="S53" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="T53" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="T53" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8732,11 +8724,11 @@
         <v>51</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
@@ -8750,12 +8742,12 @@
       <c r="N54" s="15"/>
       <c r="O54" s="28"/>
       <c r="P54" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="Q54" s="15"/>
       <c r="R54" s="15"/>
       <c r="S54" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T54" s="15"/>
     </row>
@@ -8764,53 +8756,53 @@
         <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I55" s="15"/>
       <c r="J55" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="N55" s="15"/>
       <c r="O55" s="27" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="P55" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q55" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R55" s="15"/>
       <c r="S55" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="T55" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="T55" s="5" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8818,47 +8810,47 @@
         <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
       <c r="G56" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I56" s="15"/>
       <c r="J56" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L56" s="20"/>
       <c r="M56" s="15"/>
       <c r="N56" s="15"/>
       <c r="O56" s="27" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="P56" s="8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="Q56" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R56" s="15"/>
       <c r="S56" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="T56" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="T56" s="5" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8866,53 +8858,53 @@
         <v>54</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E57" s="15"/>
       <c r="F57" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I57" s="15"/>
       <c r="J57" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="N57" s="15"/>
       <c r="O57" s="27" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="P57" s="8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="Q57" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R57" s="15"/>
       <c r="S57" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="T57" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="T57" s="5" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8920,7 +8912,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
@@ -8937,7 +8929,7 @@
       <c r="O58" s="28"/>
       <c r="P58" s="20"/>
       <c r="Q58" s="25" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="R58" s="15"/>
       <c r="S58" s="15"/>
@@ -8948,53 +8940,53 @@
         <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E59" s="15"/>
       <c r="F59" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I59" s="15"/>
       <c r="J59" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="N59" s="15"/>
       <c r="O59" s="27" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="P59" s="8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Q59" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R59" s="15"/>
       <c r="S59" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="T59" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="T59" s="5" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9002,7 +8994,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
@@ -9013,7 +9005,7 @@
       <c r="I60" s="15"/>
       <c r="J60" s="15"/>
       <c r="K60" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L60" s="20"/>
       <c r="M60" s="15"/>
@@ -9023,10 +9015,10 @@
       <c r="Q60" s="15"/>
       <c r="R60" s="15"/>
       <c r="S60" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="T60" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="T60" s="5" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9034,59 +9026,59 @@
         <v>58</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="E61" s="5" t="s">
+      <c r="F61" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="I61" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="F61" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="I61" s="5" t="s">
+      <c r="J61" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="J61" s="5" t="s">
+      <c r="K61" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="N61" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="K61" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="L61" s="8" t="s">
-        <v>716</v>
-      </c>
-      <c r="M61" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="N61" s="5" t="s">
+      <c r="O61" s="27" t="s">
+        <v>787</v>
+      </c>
+      <c r="P61" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q61" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="O61" s="27" t="s">
-        <v>788</v>
-      </c>
-      <c r="P61" s="8" t="s">
-        <v>646</v>
-      </c>
-      <c r="Q61" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="R61" s="15"/>
       <c r="S61" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="T61" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="T61" s="5" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9094,12 +9086,12 @@
         <v>59</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
       <c r="E62" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
@@ -9122,7 +9114,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
@@ -9141,7 +9133,7 @@
       <c r="Q63" s="15"/>
       <c r="R63" s="15"/>
       <c r="S63" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="T63" s="15"/>
     </row>
@@ -9150,55 +9142,55 @@
         <v>61</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E64" s="15"/>
       <c r="F64" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I64" s="15"/>
       <c r="J64" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M64" s="8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="N64" s="15"/>
       <c r="O64" s="27" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="P64" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="Q64" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="R64" s="22" t="s">
+        <v>817</v>
+      </c>
+      <c r="S64" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="R64" s="22" t="s">
-        <v>818</v>
-      </c>
-      <c r="S64" s="5" t="s">
+      <c r="T64" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="T64" s="5" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="65" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9206,59 +9198,59 @@
         <v>62</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="E65" s="5" t="s">
+      <c r="F65" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="I65" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="F65" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="I65" s="5" t="s">
+      <c r="J65" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="J65" s="5" t="s">
-        <v>269</v>
-      </c>
       <c r="K65" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="N65" s="15"/>
       <c r="O65" s="27" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="P65" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Q65" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="R65" s="22" t="s">
+        <v>818</v>
+      </c>
+      <c r="S65" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="R65" s="22" t="s">
-        <v>819</v>
-      </c>
-      <c r="S65" s="5" t="s">
+      <c r="T65" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="T65" s="5" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9266,51 +9258,51 @@
         <v>63</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E66" s="15"/>
       <c r="F66" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G66" s="15"/>
       <c r="H66" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I66" s="15"/>
       <c r="J66" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="M66" s="15"/>
       <c r="N66" s="15"/>
       <c r="O66" s="27" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="P66" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="Q66" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="R66" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="S66" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="R66" s="22" t="s">
-        <v>820</v>
-      </c>
-      <c r="S66" s="5" t="s">
+      <c r="T66" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="T66" s="5" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="67" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9318,12 +9310,12 @@
         <v>64</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
@@ -9331,24 +9323,24 @@
       <c r="I67" s="15"/>
       <c r="J67" s="15"/>
       <c r="K67" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="M67" s="15"/>
       <c r="N67" s="15"/>
       <c r="O67" s="27" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="P67" s="20"/>
       <c r="Q67" s="15"/>
       <c r="R67" s="23"/>
       <c r="S67" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="T67" s="5" t="s">
         <v>280</v>
-      </c>
-      <c r="T67" s="5" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9356,7 +9348,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
@@ -9367,24 +9359,24 @@
       <c r="I68" s="16"/>
       <c r="J68" s="16"/>
       <c r="K68" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L68" s="21"/>
       <c r="M68" s="16"/>
       <c r="N68" s="16"/>
       <c r="O68" s="27" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="P68" s="21"/>
       <c r="Q68" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R68" s="24"/>
       <c r="S68" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="T68" s="5" t="s">
         <v>284</v>
-      </c>
-      <c r="T68" s="5" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9392,103 +9384,103 @@
         <v>66</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E69" s="15"/>
       <c r="F69" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I69" s="15"/>
       <c r="J69" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="N69" s="15"/>
       <c r="O69" s="27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="P69" s="8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="Q69" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="R69" s="22" t="s">
+        <v>820</v>
+      </c>
+      <c r="S69" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="R69" s="22" t="s">
-        <v>821</v>
-      </c>
-      <c r="S69" s="5" t="s">
+      <c r="T69" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="T69" s="5" t="s">
-        <v>290</v>
-      </c>
     </row>
-    <row r="70" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>67</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
       <c r="G70" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I70" s="15"/>
       <c r="J70" s="15"/>
       <c r="K70" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M70" s="15"/>
       <c r="N70" s="15"/>
       <c r="O70" s="27" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="P70" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="Q70" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="R70" s="23"/>
       <c r="S70" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="T70" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="T70" s="5" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9496,51 +9488,51 @@
         <v>68</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E71" s="15"/>
       <c r="F71" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I71" s="15"/>
       <c r="J71" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="N71" s="15"/>
       <c r="O71" s="27" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="P71" s="20"/>
       <c r="Q71" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R71" s="23"/>
       <c r="S71" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="T71" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="T71" s="5" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="72" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9548,55 +9540,55 @@
         <v>69</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E72" s="15"/>
       <c r="F72" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I72" s="15"/>
       <c r="J72" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="N72" s="15"/>
       <c r="O72" s="27" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="P72" s="8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="Q72" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R72" s="22" t="s">
+        <v>821</v>
+      </c>
+      <c r="S72" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="R72" s="22" t="s">
-        <v>822</v>
-      </c>
-      <c r="S72" s="5" t="s">
+      <c r="T72" s="5" t="s">
         <v>303</v>
-      </c>
-      <c r="T72" s="5" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="73" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9604,45 +9596,45 @@
         <v>70</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E73" s="15"/>
       <c r="F73" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G73" s="15"/>
       <c r="H73" s="15"/>
       <c r="I73" s="15"/>
       <c r="J73" s="15"/>
       <c r="K73" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O73" s="28"/>
       <c r="P73" s="20"/>
       <c r="Q73" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="R73" s="23"/>
       <c r="S73" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="T73" s="5" t="s">
         <v>308</v>
-      </c>
-      <c r="T73" s="5" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="74" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9650,19 +9642,19 @@
         <v>71</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
       <c r="G74" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I74" s="15"/>
       <c r="J74" s="15"/>
@@ -9671,18 +9663,18 @@
       <c r="M74" s="15"/>
       <c r="N74" s="15"/>
       <c r="O74" s="27" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="P74" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="Q74" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R74" s="23"/>
       <c r="S74" s="15"/>
       <c r="T74" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9690,55 +9682,55 @@
         <v>72</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C75" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>315</v>
-      </c>
       <c r="F75" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I75" s="15"/>
       <c r="J75" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="N75" s="15"/>
       <c r="O75" s="27" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="P75" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="Q75" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="R75" s="23"/>
       <c r="S75" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="T75" s="5" t="s">
         <v>318</v>
-      </c>
-      <c r="T75" s="5" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9746,55 +9738,55 @@
         <v>73</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E76" s="15"/>
       <c r="F76" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I76" s="15"/>
       <c r="J76" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M76" s="8" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="N76" s="15"/>
       <c r="O76" s="27" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P76" s="8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Q76" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="R76" s="22" t="s">
+        <v>822</v>
+      </c>
+      <c r="S76" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="R76" s="22" t="s">
-        <v>823</v>
-      </c>
-      <c r="S76" s="5" t="s">
+      <c r="T76" s="5" t="s">
         <v>323</v>
-      </c>
-      <c r="T76" s="5" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9802,51 +9794,51 @@
         <v>74</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E77" s="15"/>
       <c r="F77" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I77" s="15"/>
       <c r="J77" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="M77" s="15"/>
       <c r="N77" s="15"/>
       <c r="O77" s="27" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="P77" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="Q77" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R77" s="15"/>
       <c r="S77" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="T77" s="5" t="s">
         <v>328</v>
-      </c>
-      <c r="T77" s="5" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="78" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9854,7 +9846,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
@@ -9873,16 +9865,16 @@
       <c r="Q78" s="15"/>
       <c r="R78" s="15"/>
       <c r="S78" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T78" s="15"/>
     </row>
     <row r="79" spans="1:20" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B79" s="40" t="s">
         <v>332</v>
-      </c>
-      <c r="B79" s="40" t="s">
-        <v>333</v>
       </c>
       <c r="C79" s="41"/>
       <c r="D79" s="41"/>
